--- a/Data/CaLSeN_2023.xlsx
+++ b/Data/CaLSeN_2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Queer\RStudio\TickEcology\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF2A5802-2F28-40FA-8723-7BB32A7C3BC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76C8D323-D854-4CD6-910B-8D8539DE2B79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SiteSpecies" sheetId="13" r:id="rId1"/>
@@ -155,7 +155,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3619" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3617" uniqueCount="397">
   <si>
     <t xml:space="preserve">Province </t>
   </si>
@@ -1352,9 +1352,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="15" x14ac:knownFonts="1">
     <font>
@@ -1493,7 +1494,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1563,23 +1564,40 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1949,9 +1967,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z31"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P14" sqref="P14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1960,8 +1978,8 @@
     <col min="4" max="4" width="30.26953125" style="13" customWidth="1"/>
     <col min="5" max="5" width="12.81640625" style="13" customWidth="1"/>
     <col min="6" max="6" width="13" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.453125" style="9" customWidth="1"/>
-    <col min="8" max="8" width="16" style="9" customWidth="1"/>
+    <col min="7" max="7" width="15.453125" style="45" customWidth="1"/>
+    <col min="8" max="8" width="16" style="45" customWidth="1"/>
     <col min="9" max="9" width="12.26953125" style="16" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.26953125" style="16" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.26953125" style="16" bestFit="1" customWidth="1"/>
@@ -1974,7 +1992,7 @@
     <col min="21" max="21" width="11.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="15" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -1990,25 +2008,25 @@
       <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="I1" s="36" t="s">
         <v>392</v>
       </c>
-      <c r="J1" s="37" t="s">
+      <c r="J1" s="36" t="s">
         <v>393</v>
       </c>
-      <c r="K1" s="37" t="s">
+      <c r="K1" s="36" t="s">
         <v>394</v>
       </c>
-      <c r="L1" s="37" t="s">
+      <c r="L1" s="36" t="s">
         <v>395</v>
       </c>
       <c r="M1" s="11" t="s">
@@ -2068,10 +2086,10 @@
       <c r="F2" s="8">
         <v>45091</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="45">
         <v>0.51041666666666663</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="45">
         <v>0.64583333333333337</v>
       </c>
       <c r="I2" s="16">
@@ -2107,15 +2125,15 @@
       <c r="S2" s="1">
         <v>0</v>
       </c>
-      <c r="T2" s="35">
+      <c r="T2" s="34">
         <f>AVERAGEIF(IxodesWaypoint!$D:$D, C2,IxodesWaypoint!$N:$N)</f>
         <v>0.15</v>
       </c>
-      <c r="U2" s="35">
+      <c r="U2" s="34">
         <f>AVERAGEIF(IxodesWaypoint!$D:$D, C2,IxodesWaypoint!$O:$O)*10</f>
         <v>57.399999999999991</v>
       </c>
-      <c r="V2" s="36">
+      <c r="V2" s="35">
         <f>AVERAGEIF(IxodesWaypoint!$D:$D, C2,IxodesWaypoint!$P:$P)</f>
         <v>79.993600000000001</v>
       </c>
@@ -2146,10 +2164,10 @@
       <c r="F3" s="8">
         <v>45120</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="45">
         <v>0.6875</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="45">
         <v>0.85416666666666663</v>
       </c>
       <c r="I3" s="16">
@@ -2185,15 +2203,15 @@
       <c r="S3" s="21">
         <v>1</v>
       </c>
-      <c r="T3" s="35">
+      <c r="T3" s="34">
         <f>AVERAGEIF(IxodesWaypoint!$D:$D, C3,IxodesWaypoint!$N:$N)</f>
         <v>1.55</v>
       </c>
-      <c r="U3" s="35">
+      <c r="U3" s="34">
         <f>AVERAGEIF(IxodesWaypoint!$D:$D, C3,IxodesWaypoint!$O:$O)*10</f>
         <v>60.099999999999994</v>
       </c>
-      <c r="V3" s="36">
+      <c r="V3" s="35">
         <f>AVERAGEIF(IxodesWaypoint!$D:$D, C3,IxodesWaypoint!$P:$P)</f>
         <v>81.035600000000002</v>
       </c>
@@ -2224,10 +2242,10 @@
       <c r="F4" s="8">
         <v>45062</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="45">
         <v>0.5</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="45">
         <v>0.73611111111111116</v>
       </c>
       <c r="I4" s="16">
@@ -2263,15 +2281,15 @@
       <c r="S4" s="21">
         <v>1</v>
       </c>
-      <c r="T4" s="35">
+      <c r="T4" s="34">
         <f>AVERAGEIF(IxodesWaypoint!$D:$D, C4,IxodesWaypoint!$N:$N)</f>
         <v>6.08</v>
       </c>
-      <c r="U4" s="35">
+      <c r="U4" s="34">
         <f>AVERAGEIF(IxodesWaypoint!$D:$D, C4,IxodesWaypoint!$O:$O)*10</f>
         <v>54</v>
       </c>
-      <c r="V4" s="36">
+      <c r="V4" s="35">
         <f>AVERAGEIF(IxodesWaypoint!$D:$D, C4,IxodesWaypoint!$P:$P)</f>
         <v>83.0154</v>
       </c>
@@ -2302,10 +2320,10 @@
       <c r="F5" s="8">
         <v>45076</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="45">
         <v>0.40625</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="45">
         <v>0.58333333333333337</v>
       </c>
       <c r="I5" s="16">
@@ -2341,15 +2359,15 @@
       <c r="S5" s="10">
         <v>0</v>
       </c>
-      <c r="T5" s="35">
+      <c r="T5" s="34">
         <f>AVERAGEIF(IxodesWaypoint!$D:$D, C5,IxodesWaypoint!$N:$N)</f>
         <v>1.55</v>
       </c>
-      <c r="U5" s="35">
+      <c r="U5" s="34">
         <f>AVERAGEIF(IxodesWaypoint!$D:$D, C5,IxodesWaypoint!$O:$O)*10</f>
         <v>44.3</v>
       </c>
-      <c r="V5" s="36">
+      <c r="V5" s="35">
         <f>AVERAGEIF(IxodesWaypoint!$D:$D, C5,IxodesWaypoint!$P:$P)</f>
         <v>67.287600000000012</v>
       </c>
@@ -2380,10 +2398,10 @@
       <c r="F6" s="8">
         <v>45063</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="45">
         <v>0.5625</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="45">
         <v>0.70833333333333337</v>
       </c>
       <c r="I6" s="16">
@@ -2419,15 +2437,15 @@
       <c r="S6" s="21">
         <v>2</v>
       </c>
-      <c r="T6" s="35">
+      <c r="T6" s="34">
         <f>AVERAGEIF(IxodesWaypoint!$D:$D, C6,IxodesWaypoint!$N:$N)</f>
         <v>3.05</v>
       </c>
-      <c r="U6" s="35">
+      <c r="U6" s="34">
         <f>AVERAGEIF(IxodesWaypoint!$D:$D, C6,IxodesWaypoint!$O:$O)*10</f>
         <v>69.100000000000009</v>
       </c>
-      <c r="V6" s="36">
+      <c r="V6" s="35">
         <f>AVERAGEIF(IxodesWaypoint!$D:$D, C6,IxodesWaypoint!$P:$P)</f>
         <v>38.427400000000006</v>
       </c>
@@ -2458,10 +2476,10 @@
       <c r="F7" s="8">
         <v>45068</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="45">
         <v>0.47222222222222227</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="45">
         <v>0.6069444444444444</v>
       </c>
       <c r="I7" s="16">
@@ -2497,15 +2515,15 @@
       <c r="S7" s="10">
         <v>0</v>
       </c>
-      <c r="T7" s="35">
+      <c r="T7" s="34">
         <f>AVERAGEIF(IxodesWaypoint!$D:$D, C7,IxodesWaypoint!$N:$N)</f>
         <v>2.25</v>
       </c>
-      <c r="U7" s="35">
+      <c r="U7" s="34">
         <f>AVERAGEIF(IxodesWaypoint!$D:$D, C7,IxodesWaypoint!$O:$O)*10</f>
         <v>13.599999999999998</v>
       </c>
-      <c r="V7" s="36">
+      <c r="V7" s="35">
         <f>AVERAGEIF(IxodesWaypoint!$D:$D, C7,IxodesWaypoint!$P:$P)</f>
         <v>94.39403999999999</v>
       </c>
@@ -2536,10 +2554,10 @@
       <c r="F8" s="8">
         <v>45068</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="45">
         <v>0.74652777777777779</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="45">
         <v>0.83333333333333337</v>
       </c>
       <c r="I8" s="16">
@@ -2575,15 +2593,15 @@
       <c r="S8" s="10">
         <v>0</v>
       </c>
-      <c r="T8" s="35">
+      <c r="T8" s="34">
         <f>AVERAGEIF(IxodesWaypoint!$D:$D, C8,IxodesWaypoint!$N:$N)</f>
         <v>1.9300000000000002</v>
       </c>
-      <c r="U8" s="35">
+      <c r="U8" s="34">
         <f>AVERAGEIF(IxodesWaypoint!$D:$D, C8,IxodesWaypoint!$O:$O)*10</f>
         <v>21.6</v>
       </c>
-      <c r="V8" s="36">
+      <c r="V8" s="35">
         <f>AVERAGEIF(IxodesWaypoint!$D:$D, C8,IxodesWaypoint!$P:$P)</f>
         <v>91.664000000000001</v>
       </c>
@@ -2614,10 +2632,10 @@
       <c r="F9" s="8">
         <v>45067</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="45">
         <v>0.69791666666666663</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="45">
         <v>0.82638888888888884</v>
       </c>
       <c r="I9" s="16">
@@ -2653,15 +2671,15 @@
       <c r="S9" s="10">
         <v>0</v>
       </c>
-      <c r="T9" s="35">
+      <c r="T9" s="34">
         <f>AVERAGEIF(IxodesWaypoint!$D:$D, C9,IxodesWaypoint!$N:$N)</f>
         <v>2.62</v>
       </c>
-      <c r="U9" s="35">
+      <c r="U9" s="34">
         <f>AVERAGEIF(IxodesWaypoint!$D:$D, C9,IxodesWaypoint!$O:$O)*10</f>
         <v>30.1</v>
       </c>
-      <c r="V9" s="36">
+      <c r="V9" s="35">
         <f>AVERAGEIF(IxodesWaypoint!$D:$D, C9,IxodesWaypoint!$P:$P)</f>
         <v>80.097800000000007</v>
       </c>
@@ -2692,10 +2710,10 @@
       <c r="F10" s="8">
         <v>45066</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="45">
         <v>0.59027777777777779</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="45">
         <v>0.75694444444444453</v>
       </c>
       <c r="I10" s="16">
@@ -2731,15 +2749,15 @@
       <c r="S10" s="21">
         <v>1</v>
       </c>
-      <c r="T10" s="35">
+      <c r="T10" s="34">
         <f>AVERAGEIF(IxodesWaypoint!$D:$D, C10,IxodesWaypoint!$N:$N)</f>
         <v>2.54</v>
       </c>
-      <c r="U10" s="35">
+      <c r="U10" s="34">
         <f>AVERAGEIF(IxodesWaypoint!$D:$D, C10,IxodesWaypoint!$O:$O)*10</f>
         <v>14</v>
       </c>
-      <c r="V10" s="36">
+      <c r="V10" s="35">
         <f>AVERAGEIF(IxodesWaypoint!$D:$D, C10,IxodesWaypoint!$P:$P)</f>
         <v>86.141400000000004</v>
       </c>
@@ -2770,10 +2788,10 @@
       <c r="F11" s="8">
         <v>45067</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="45">
         <v>0.39999999999999997</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="45">
         <v>0.5</v>
       </c>
       <c r="I11" s="16">
@@ -2809,15 +2827,15 @@
       <c r="S11" s="21">
         <v>1</v>
       </c>
-      <c r="T11" s="35">
+      <c r="T11" s="34">
         <f>AVERAGEIF(IxodesWaypoint!$D:$D, C11,IxodesWaypoint!$N:$N)</f>
         <v>1.5</v>
       </c>
-      <c r="U11" s="35">
+      <c r="U11" s="34">
         <f>AVERAGEIF(IxodesWaypoint!$D:$D, C11,IxodesWaypoint!$O:$O)*10</f>
         <v>10.8</v>
       </c>
-      <c r="V11" s="36">
+      <c r="V11" s="35">
         <f>AVERAGEIF(IxodesWaypoint!$D:$D, C11,IxodesWaypoint!$P:$P)</f>
         <v>43.324800000000003</v>
       </c>
@@ -2848,10 +2866,10 @@
       <c r="F12" s="8">
         <v>45068</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="45">
         <v>0.65625</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="45">
         <v>0.78472222222222221</v>
       </c>
       <c r="I12" s="16">
@@ -2887,15 +2905,15 @@
       <c r="S12" s="10">
         <v>0</v>
       </c>
-      <c r="T12" s="35">
+      <c r="T12" s="34">
         <f>AVERAGEIF(IxodesWaypoint!$D:$D, C12,IxodesWaypoint!$N:$N)</f>
         <v>2.0499999999999998</v>
       </c>
-      <c r="U12" s="35">
+      <c r="U12" s="34">
         <f>AVERAGEIF(IxodesWaypoint!$D:$D, C12,IxodesWaypoint!$O:$O)*10</f>
         <v>14.6</v>
       </c>
-      <c r="V12" s="36">
+      <c r="V12" s="35">
         <f>AVERAGEIF(IxodesWaypoint!$D:$D, C12,IxodesWaypoint!$P:$P)</f>
         <v>80.827200000000005</v>
       </c>
@@ -2926,10 +2944,10 @@
       <c r="F13" s="8">
         <v>45095</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="45">
         <v>0.66666666666666663</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="45">
         <v>0.80555555555555547</v>
       </c>
       <c r="I13" s="16">
@@ -2965,15 +2983,15 @@
       <c r="S13" s="10">
         <v>0</v>
       </c>
-      <c r="T13" s="35">
+      <c r="T13" s="34">
         <f>AVERAGEIF(IxodesWaypoint!$D:$D, C13,IxodesWaypoint!$N:$N)</f>
         <v>0.05</v>
       </c>
-      <c r="U13" s="35">
+      <c r="U13" s="34">
         <f>AVERAGEIF(IxodesWaypoint!$D:$D, C13,IxodesWaypoint!$O:$O)*10</f>
         <v>19.600000000000001</v>
       </c>
-      <c r="V13" s="36">
+      <c r="V13" s="35">
         <f>AVERAGEIF(IxodesWaypoint!$D:$D, C13,IxodesWaypoint!$P:$P)</f>
         <v>75.012840000000011</v>
       </c>
@@ -3004,10 +3022,10 @@
       <c r="F14" s="8">
         <v>45126</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="45">
         <v>0.4513888888888889</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="45">
         <v>0.57291666666666663</v>
       </c>
       <c r="I14" s="16">
@@ -3043,15 +3061,15 @@
       <c r="S14" s="10">
         <v>0</v>
       </c>
-      <c r="T14" s="35">
+      <c r="T14" s="34">
         <f>AVERAGEIF(IxodesWaypoint!$D:$D, C14,IxodesWaypoint!$N:$N)</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="U14" s="35">
+      <c r="U14" s="34">
         <f>AVERAGEIF(IxodesWaypoint!$D:$D, C14,IxodesWaypoint!$O:$O)*10</f>
         <v>10</v>
       </c>
-      <c r="V14" s="36">
+      <c r="V14" s="35">
         <f>AVERAGEIF(IxodesWaypoint!$D:$D, C14,IxodesWaypoint!$P:$P)</f>
         <v>92.914400000000001</v>
       </c>
@@ -3084,10 +3102,10 @@
       <c r="F15" s="8">
         <v>45096</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="45">
         <v>0.69791666666666663</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="45">
         <v>0.80555555555555547</v>
       </c>
       <c r="I15" s="16">
@@ -3123,15 +3141,15 @@
       <c r="S15" s="10">
         <v>0</v>
       </c>
-      <c r="T15" s="35">
+      <c r="T15" s="34">
         <f>AVERAGEIF(IxodesWaypoint!$D:$D, C15,IxodesWaypoint!$N:$N)</f>
         <v>1.2</v>
       </c>
-      <c r="U15" s="35">
+      <c r="U15" s="34">
         <f>AVERAGEIF(IxodesWaypoint!$D:$D, C15,IxodesWaypoint!$O:$O)*10</f>
         <v>13.2</v>
       </c>
-      <c r="V15" s="36">
+      <c r="V15" s="35">
         <f>AVERAGEIF(IxodesWaypoint!$D:$D, C15,IxodesWaypoint!$P:$P)</f>
         <v>81.452399999999997</v>
       </c>
@@ -3162,10 +3180,10 @@
       <c r="F16" s="8">
         <v>45098</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="45">
         <v>0.52083333333333337</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H16" s="45">
         <v>0.66319444444444442</v>
       </c>
       <c r="I16" s="16">
@@ -3201,15 +3219,15 @@
       <c r="S16" s="10">
         <v>0</v>
       </c>
-      <c r="T16" s="35">
+      <c r="T16" s="34">
         <f>AVERAGEIF(IxodesWaypoint!$D:$D, C16,IxodesWaypoint!$N:$N)</f>
         <v>3.55</v>
       </c>
-      <c r="U16" s="35">
+      <c r="U16" s="34">
         <f>AVERAGEIF(IxodesWaypoint!$D:$D, C16,IxodesWaypoint!$O:$O)*10</f>
         <v>16.599999999999998</v>
       </c>
-      <c r="V16" s="36">
+      <c r="V16" s="35">
         <f>AVERAGEIF(IxodesWaypoint!$D:$D, C16,IxodesWaypoint!$P:$P)</f>
         <v>93.539599999999979</v>
       </c>
@@ -3240,10 +3258,10 @@
       <c r="F17" s="8">
         <v>45069</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="45">
         <v>0.52083333333333337</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H17" s="45">
         <v>0.69791666666666663</v>
       </c>
       <c r="I17" s="16">
@@ -3279,15 +3297,15 @@
       <c r="S17" s="21">
         <v>10</v>
       </c>
-      <c r="T17" s="35">
+      <c r="T17" s="34">
         <f>AVERAGEIF(IxodesWaypoint!$D:$D, C17,IxodesWaypoint!$N:$N)</f>
         <v>1.83</v>
       </c>
-      <c r="U17" s="35">
+      <c r="U17" s="34">
         <f>AVERAGEIF(IxodesWaypoint!$D:$D, C17,IxodesWaypoint!$O:$O)*10</f>
         <v>44.699999999999996</v>
       </c>
-      <c r="V17" s="36">
+      <c r="V17" s="35">
         <f>AVERAGEIF(IxodesWaypoint!$D:$D, C17,IxodesWaypoint!$P:$P)</f>
         <v>69.052600000000012</v>
       </c>
@@ -3318,10 +3336,10 @@
       <c r="F18" s="8">
         <v>45070</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="45">
         <v>0.45833333333333331</v>
       </c>
-      <c r="H18" s="9">
+      <c r="H18" s="45">
         <v>0.59375</v>
       </c>
       <c r="I18" s="16">
@@ -3357,15 +3375,15 @@
       <c r="S18" s="21">
         <v>1</v>
       </c>
-      <c r="T18" s="35">
+      <c r="T18" s="34">
         <f>AVERAGEIF(IxodesWaypoint!$D:$D, C18,IxodesWaypoint!$N:$N)</f>
         <v>4.1500000000000004</v>
       </c>
-      <c r="U18" s="35">
+      <c r="U18" s="34">
         <f>AVERAGEIF(IxodesWaypoint!$D:$D, C18,IxodesWaypoint!$O:$O)*10</f>
         <v>29.9</v>
       </c>
-      <c r="V18" s="36">
+      <c r="V18" s="35">
         <f>AVERAGEIF(IxodesWaypoint!$D:$D, C18,IxodesWaypoint!$P:$P)</f>
         <v>89.996799999999993</v>
       </c>
@@ -3396,10 +3414,10 @@
       <c r="F19" s="8">
         <v>45071</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19" s="45">
         <v>0.66666666666666663</v>
       </c>
-      <c r="H19" s="9">
+      <c r="H19" s="45">
         <v>0.78472222222222221</v>
       </c>
       <c r="I19" s="16">
@@ -3435,15 +3453,15 @@
       <c r="S19" s="10">
         <v>0</v>
       </c>
-      <c r="T19" s="35">
+      <c r="T19" s="34">
         <f>AVERAGEIF(IxodesWaypoint!$D:$D, C19,IxodesWaypoint!$N:$N)</f>
         <v>1.35</v>
       </c>
-      <c r="U19" s="35">
+      <c r="U19" s="34">
         <f>AVERAGEIF(IxodesWaypoint!$D:$D, C19,IxodesWaypoint!$O:$O)*10</f>
         <v>59.6</v>
       </c>
-      <c r="V19" s="36">
+      <c r="V19" s="35">
         <f>AVERAGEIF(IxodesWaypoint!$D:$D, C19,IxodesWaypoint!$P:$P)</f>
         <v>84.891000000000005</v>
       </c>
@@ -3474,10 +3492,10 @@
       <c r="F20" s="8">
         <v>45070</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G20" s="45">
         <v>0.69444444444444453</v>
       </c>
-      <c r="H20" s="9">
+      <c r="H20" s="45">
         <v>0.81597222222222221</v>
       </c>
       <c r="I20" s="16">
@@ -3513,15 +3531,15 @@
       <c r="S20" s="21">
         <v>3</v>
       </c>
-      <c r="T20" s="35">
+      <c r="T20" s="34">
         <f>AVERAGEIF(IxodesWaypoint!$D:$D, C20,IxodesWaypoint!$N:$N)</f>
         <v>3.45</v>
       </c>
-      <c r="U20" s="35">
+      <c r="U20" s="34">
         <f>AVERAGEIF(IxodesWaypoint!$D:$D, C20,IxodesWaypoint!$O:$O)*10</f>
         <v>31.500000000000004</v>
       </c>
-      <c r="V20" s="36">
+      <c r="V20" s="35">
         <f>AVERAGEIF(IxodesWaypoint!$D:$D, C20,IxodesWaypoint!$P:$P)</f>
         <v>97.186599999999999</v>
       </c>
@@ -3550,10 +3568,10 @@
       <c r="F21" s="8">
         <v>45071</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G21" s="45">
         <v>0.4375</v>
       </c>
-      <c r="H21" s="9">
+      <c r="H21" s="45">
         <v>0.58333333333333337</v>
       </c>
       <c r="I21" s="16">
@@ -3589,15 +3607,15 @@
       <c r="S21" s="21">
         <v>1</v>
       </c>
-      <c r="T21" s="35">
+      <c r="T21" s="34">
         <f>AVERAGEIF(IxodesWaypoint!$D:$D, C21,IxodesWaypoint!$N:$N)</f>
         <v>2.71</v>
       </c>
-      <c r="U21" s="35">
+      <c r="U21" s="34">
         <f>AVERAGEIF(IxodesWaypoint!$D:$D, C21,IxodesWaypoint!$O:$O)*10</f>
         <v>33.200000000000003</v>
       </c>
-      <c r="V21" s="36">
+      <c r="V21" s="35">
         <f>AVERAGEIF(IxodesWaypoint!$D:$D, C21,IxodesWaypoint!$P:$P)</f>
         <v>81.247199999999992</v>
       </c>
@@ -3628,10 +3646,10 @@
       <c r="F22" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="G22" s="9" t="s">
+      <c r="G22" s="45" t="s">
         <v>147</v>
       </c>
-      <c r="H22" s="9" t="s">
+      <c r="H22" s="45" t="s">
         <v>147</v>
       </c>
       <c r="I22" s="16" t="s">
@@ -3667,15 +3685,15 @@
       <c r="S22" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="T22" s="35" t="e">
+      <c r="T22" s="34" t="e">
         <f>AVERAGEIF(IxodesWaypoint!$D:$D, C22,IxodesWaypoint!$N:$N)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U22" s="35" t="e">
+      <c r="U22" s="34" t="e">
         <f>AVERAGEIF(IxodesWaypoint!$D:$D, C22,IxodesWaypoint!$O:$O)*10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="V22" s="36" t="e">
+      <c r="V22" s="35" t="e">
         <f>AVERAGEIF(IxodesWaypoint!$D:$D, C22,IxodesWaypoint!$P:$P)</f>
         <v>#DIV/0!</v>
       </c>
@@ -3704,10 +3722,10 @@
       <c r="F23" s="8">
         <v>45084</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G23" s="45">
         <v>0.40625</v>
       </c>
-      <c r="H23" s="9">
+      <c r="H23" s="45">
         <v>0.55208333333333337</v>
       </c>
       <c r="I23" s="16">
@@ -3743,15 +3761,15 @@
       <c r="S23" s="10">
         <v>0</v>
       </c>
-      <c r="T23" s="35">
+      <c r="T23" s="34">
         <f>AVERAGEIF(IxodesWaypoint!$D:$D, C23,IxodesWaypoint!$N:$N)</f>
         <v>0.78</v>
       </c>
-      <c r="U23" s="35">
+      <c r="U23" s="34">
         <f>AVERAGEIF(IxodesWaypoint!$D:$D, C23,IxodesWaypoint!$O:$O)*10</f>
         <v>33.900000000000006</v>
       </c>
-      <c r="V23" s="36">
+      <c r="V23" s="35">
         <f>AVERAGEIF(IxodesWaypoint!$D:$D, C23,IxodesWaypoint!$P:$P)</f>
         <v>36.346599999999995</v>
       </c>
@@ -3782,10 +3800,10 @@
       <c r="F24" s="8">
         <v>45084</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G24" s="45">
         <v>0.64583333333333337</v>
       </c>
-      <c r="H24" s="9">
+      <c r="H24" s="45">
         <v>0.77083333333333337</v>
       </c>
       <c r="I24" s="16">
@@ -3821,15 +3839,15 @@
       <c r="S24" s="10">
         <v>0</v>
       </c>
-      <c r="T24" s="35">
+      <c r="T24" s="34">
         <f>AVERAGEIF(IxodesWaypoint!$D:$D, C24,IxodesWaypoint!$N:$N)</f>
         <v>0.15</v>
       </c>
-      <c r="U24" s="35">
+      <c r="U24" s="34">
         <f>AVERAGEIF(IxodesWaypoint!$D:$D, C24,IxodesWaypoint!$O:$O)*10</f>
         <v>11.8</v>
       </c>
-      <c r="V24" s="36">
+      <c r="V24" s="35">
         <f>AVERAGEIF(IxodesWaypoint!$D:$D, C24,IxodesWaypoint!$P:$P)</f>
         <v>41.856399999999994</v>
       </c>
@@ -3860,10 +3878,10 @@
       <c r="F25" s="8">
         <v>45085</v>
       </c>
-      <c r="G25" s="9">
+      <c r="G25" s="45">
         <v>0.52083333333333337</v>
       </c>
-      <c r="H25" s="9">
+      <c r="H25" s="45">
         <v>0.63541666666666663</v>
       </c>
       <c r="I25" s="16">
@@ -3899,15 +3917,15 @@
       <c r="S25" s="10">
         <v>0</v>
       </c>
-      <c r="T25" s="35">
+      <c r="T25" s="34">
         <f>AVERAGEIF(IxodesWaypoint!$D:$D, C25,IxodesWaypoint!$N:$N)</f>
         <v>2.2000000000000002</v>
       </c>
-      <c r="U25" s="35">
+      <c r="U25" s="34">
         <f>AVERAGEIF(IxodesWaypoint!$D:$D, C25,IxodesWaypoint!$O:$O)*10</f>
         <v>43.9</v>
       </c>
-      <c r="V25" s="36">
+      <c r="V25" s="35">
         <f>AVERAGEIF(IxodesWaypoint!$D:$D, C25,IxodesWaypoint!$P:$P)</f>
         <v>92.080799999999996</v>
       </c>
@@ -3938,10 +3956,10 @@
       <c r="F26" s="8">
         <v>45085</v>
       </c>
-      <c r="G26" s="9">
+      <c r="G26" s="45">
         <v>0.73958333333333337</v>
       </c>
-      <c r="H26" s="9">
+      <c r="H26" s="45">
         <v>0.84027777777777779</v>
       </c>
       <c r="I26" s="16">
@@ -3977,15 +3995,15 @@
       <c r="S26" s="10">
         <v>0</v>
       </c>
-      <c r="T26" s="35">
+      <c r="T26" s="34">
         <f>AVERAGEIF(IxodesWaypoint!$D:$D, C26,IxodesWaypoint!$N:$N)</f>
         <v>3.35</v>
       </c>
-      <c r="U26" s="35">
+      <c r="U26" s="34">
         <f>AVERAGEIF(IxodesWaypoint!$D:$D, C26,IxodesWaypoint!$O:$O)*10</f>
         <v>31.200000000000003</v>
       </c>
-      <c r="V26" s="36">
+      <c r="V26" s="35">
         <f>AVERAGEIF(IxodesWaypoint!$D:$D, C26,IxodesWaypoint!$P:$P)</f>
         <v>95.415199999999999</v>
       </c>
@@ -4016,10 +4034,10 @@
       <c r="F27" s="8">
         <v>45113</v>
       </c>
-      <c r="G27" s="9">
+      <c r="G27" s="45">
         <v>0.56736111111111109</v>
       </c>
-      <c r="H27" s="9">
+      <c r="H27" s="45">
         <v>0.63750000000000007</v>
       </c>
       <c r="I27" s="16">
@@ -4055,15 +4073,15 @@
       <c r="S27" s="21">
         <v>5</v>
       </c>
-      <c r="T27" s="35" t="e">
+      <c r="T27" s="34" t="e">
         <f>AVERAGEIF(IxodesWaypoint!$D:$D, C27,IxodesWaypoint!$N:$N)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U27" s="35" t="e">
+      <c r="U27" s="34" t="e">
         <f>AVERAGEIF(IxodesWaypoint!$D:$D, C27,IxodesWaypoint!$O:$O)*10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="V27" s="36" t="e">
+      <c r="V27" s="35" t="e">
         <f>AVERAGEIF(IxodesWaypoint!$D:$D, C27,IxodesWaypoint!$P:$P)</f>
         <v>#DIV/0!</v>
       </c>
@@ -4089,13 +4107,13 @@
       <c r="E28" s="13">
         <v>2023</v>
       </c>
-      <c r="F28" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="G28" s="9">
+      <c r="F28" s="8">
+        <v>45100</v>
+      </c>
+      <c r="G28" s="45">
         <v>0.57777777777777783</v>
       </c>
-      <c r="H28" s="9">
+      <c r="H28" s="45">
         <v>0.70277777777777783</v>
       </c>
       <c r="I28" s="16">
@@ -4131,15 +4149,15 @@
       <c r="S28" s="10">
         <v>0</v>
       </c>
-      <c r="T28" s="35" t="e">
+      <c r="T28" s="34" t="e">
         <f>AVERAGEIF(IxodesWaypoint!$D:$D, C28,IxodesWaypoint!$N:$N)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U28" s="35" t="e">
+      <c r="U28" s="34" t="e">
         <f>AVERAGEIF(IxodesWaypoint!$D:$D, C28,IxodesWaypoint!$O:$O)*10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="V28" s="36" t="e">
+      <c r="V28" s="35" t="e">
         <f>AVERAGEIF(IxodesWaypoint!$D:$D, C28,IxodesWaypoint!$P:$P)</f>
         <v>#DIV/0!</v>
       </c>
@@ -4166,12 +4184,12 @@
         <v>2023</v>
       </c>
       <c r="F29" s="8">
-        <v>44933</v>
-      </c>
-      <c r="G29" s="9">
+        <v>45108</v>
+      </c>
+      <c r="G29" s="45">
         <v>0.5395833333333333</v>
       </c>
-      <c r="H29" s="9">
+      <c r="H29" s="45">
         <v>0.60277777777777775</v>
       </c>
       <c r="I29" s="16">
@@ -4207,15 +4225,15 @@
       <c r="S29" s="10">
         <v>0</v>
       </c>
-      <c r="T29" s="35" t="e">
+      <c r="T29" s="34" t="e">
         <f>AVERAGEIF(IxodesWaypoint!$D:$D, C29,IxodesWaypoint!$N:$N)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U29" s="35" t="e">
+      <c r="U29" s="34" t="e">
         <f>AVERAGEIF(IxodesWaypoint!$D:$D, C29,IxodesWaypoint!$O:$O)*10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="V29" s="36" t="e">
+      <c r="V29" s="35" t="e">
         <f>AVERAGEIF(IxodesWaypoint!$D:$D, C29,IxodesWaypoint!$P:$P)</f>
         <v>#DIV/0!</v>
       </c>
@@ -4241,13 +4259,13 @@
       <c r="E30" s="13">
         <v>2023</v>
       </c>
-      <c r="F30" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="G30" s="9">
+      <c r="F30" s="8">
+        <v>45091</v>
+      </c>
+      <c r="G30" s="45">
         <v>0.55486111111111114</v>
       </c>
-      <c r="H30" s="9">
+      <c r="H30" s="45">
         <v>0.62638888888888888</v>
       </c>
       <c r="I30" s="16">
@@ -4283,15 +4301,15 @@
       <c r="S30" s="10">
         <v>0</v>
       </c>
-      <c r="T30" s="35" t="e">
+      <c r="T30" s="34" t="e">
         <f>AVERAGEIF(IxodesWaypoint!$D:$D, C30,IxodesWaypoint!$N:$N)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U30" s="35" t="e">
+      <c r="U30" s="34" t="e">
         <f>AVERAGEIF(IxodesWaypoint!$D:$D, C30,IxodesWaypoint!$O:$O)*10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="V30" s="36" t="e">
+      <c r="V30" s="35" t="e">
         <f>AVERAGEIF(IxodesWaypoint!$D:$D, C30,IxodesWaypoint!$P:$P)</f>
         <v>#DIV/0!</v>
       </c>
@@ -4318,12 +4336,12 @@
         <v>2023</v>
       </c>
       <c r="F31" s="8">
-        <v>45267</v>
-      </c>
-      <c r="G31" s="9">
+        <v>45119</v>
+      </c>
+      <c r="G31" s="45">
         <v>0.57430555555555551</v>
       </c>
-      <c r="H31" s="9">
+      <c r="H31" s="45">
         <v>0.63472222222222219</v>
       </c>
       <c r="I31" s="16">
@@ -4359,15 +4377,15 @@
       <c r="S31" s="21">
         <v>1</v>
       </c>
-      <c r="T31" s="35" t="e">
+      <c r="T31" s="34" t="e">
         <f>AVERAGEIF(IxodesWaypoint!$D:$D, C31,IxodesWaypoint!$N:$N)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U31" s="35" t="e">
+      <c r="U31" s="34" t="e">
         <f>AVERAGEIF(IxodesWaypoint!$D:$D, C31,IxodesWaypoint!$O:$O)*10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="V31" s="36" t="e">
+      <c r="V31" s="35" t="e">
         <f>AVERAGEIF(IxodesWaypoint!$D:$D, C31,IxodesWaypoint!$P:$P)</f>
         <v>#DIV/0!</v>
       </c>
@@ -13095,93 +13113,94 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09A39541-780C-42EB-97B5-436A01AAFDA0}">
   <dimension ref="A1:U304"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="S211" sqref="S211"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="6" max="6" width="8.7265625" style="42"/>
     <col min="15" max="15" width="11.26953125" customWidth="1"/>
     <col min="16" max="16" width="9.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="47" t="s">
         <v>241</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="39" t="s">
+      <c r="F1" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="38" t="s">
+      <c r="G1" s="46" t="s">
         <v>385</v>
       </c>
-      <c r="H1" s="39" t="s">
+      <c r="H1" s="47" t="s">
         <v>259</v>
       </c>
-      <c r="I1" s="39" t="s">
+      <c r="I1" s="47" t="s">
         <v>260</v>
       </c>
-      <c r="J1" s="39" t="s">
+      <c r="J1" s="47" t="s">
         <v>261</v>
       </c>
-      <c r="K1" s="39" t="s">
+      <c r="K1" s="47" t="s">
         <v>262</v>
       </c>
-      <c r="L1" s="39" t="s">
+      <c r="L1" s="47" t="s">
         <v>263</v>
       </c>
-      <c r="M1" s="39" t="s">
+      <c r="M1" s="47" t="s">
         <v>264</v>
       </c>
-      <c r="N1" s="39" t="s">
+      <c r="N1" s="47" t="s">
         <v>265</v>
       </c>
-      <c r="O1" s="39" t="s">
+      <c r="O1" s="47" t="s">
         <v>266</v>
       </c>
-      <c r="P1" s="38" t="s">
+      <c r="P1" s="46" t="s">
         <v>386</v>
       </c>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="42"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="51"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="50"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="41"/>
-      <c r="S2" s="41"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="42"/>
+      <c r="A2" s="47"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="51"/>
+      <c r="S2" s="51"/>
+      <c r="T2" s="49"/>
+      <c r="U2" s="50"/>
     </row>
     <row r="3" spans="1:21" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="27" t="s">
@@ -13199,7 +13218,7 @@
       <c r="E3" s="27">
         <v>2023</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="38" t="s">
         <v>267</v>
       </c>
       <c r="G3" s="27">
@@ -13229,7 +13248,7 @@
       <c r="O3" s="27">
         <v>5.8</v>
       </c>
-      <c r="P3" s="34">
+      <c r="P3" s="33">
         <v>66.656000000000006</v>
       </c>
       <c r="Q3" s="27"/>
@@ -13253,7 +13272,7 @@
       <c r="E4" s="27">
         <v>2023</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="F4" s="38" t="s">
         <v>267</v>
       </c>
       <c r="G4" s="27">
@@ -13283,7 +13302,7 @@
       <c r="O4" s="27">
         <v>6.9</v>
       </c>
-      <c r="P4" s="34">
+      <c r="P4" s="33">
         <v>93.748000000000005</v>
       </c>
       <c r="Q4" s="27"/>
@@ -13307,7 +13326,7 @@
       <c r="E5" s="27">
         <v>2023</v>
       </c>
-      <c r="F5" s="28" t="s">
+      <c r="F5" s="38" t="s">
         <v>267</v>
       </c>
       <c r="G5" s="27">
@@ -13337,7 +13356,7 @@
       <c r="O5" s="27">
         <v>6</v>
       </c>
-      <c r="P5" s="34">
+      <c r="P5" s="33">
         <v>95.831999999999994</v>
       </c>
       <c r="Q5" s="27"/>
@@ -13361,7 +13380,7 @@
       <c r="E6" s="27">
         <v>2023</v>
       </c>
-      <c r="F6" s="28" t="s">
+      <c r="F6" s="38" t="s">
         <v>267</v>
       </c>
       <c r="G6" s="27">
@@ -13391,7 +13410,7 @@
       <c r="O6" s="27">
         <v>5.0999999999999996</v>
       </c>
-      <c r="P6" s="34">
+      <c r="P6" s="33">
         <v>83.328000000000003</v>
       </c>
       <c r="Q6" s="27"/>
@@ -13415,7 +13434,7 @@
       <c r="E7" s="27">
         <v>2023</v>
       </c>
-      <c r="F7" s="28" t="s">
+      <c r="F7" s="38" t="s">
         <v>267</v>
       </c>
       <c r="G7" s="27">
@@ -13445,7 +13464,7 @@
       <c r="O7" s="27">
         <v>6</v>
       </c>
-      <c r="P7" s="34">
+      <c r="P7" s="33">
         <v>70.823999999999998</v>
       </c>
       <c r="Q7" s="27"/>
@@ -13469,7 +13488,7 @@
       <c r="E8" s="27">
         <v>2023</v>
       </c>
-      <c r="F8" s="28" t="s">
+      <c r="F8" s="38" t="s">
         <v>267</v>
       </c>
       <c r="G8" s="27">
@@ -13499,7 +13518,7 @@
       <c r="O8" s="27">
         <v>6</v>
       </c>
-      <c r="P8" s="34">
+      <c r="P8" s="33">
         <v>77.075999999999993</v>
       </c>
       <c r="Q8" s="27"/>
@@ -13523,7 +13542,7 @@
       <c r="E9" s="27">
         <v>2023</v>
       </c>
-      <c r="F9" s="28" t="s">
+      <c r="F9" s="38" t="s">
         <v>267</v>
       </c>
       <c r="G9" s="27">
@@ -13553,7 +13572,7 @@
       <c r="O9" s="27">
         <v>7</v>
       </c>
-      <c r="P9" s="34">
+      <c r="P9" s="33">
         <v>49.983999999999995</v>
       </c>
       <c r="Q9" s="27"/>
@@ -13577,7 +13596,7 @@
       <c r="E10" s="27">
         <v>2023</v>
       </c>
-      <c r="F10" s="28" t="s">
+      <c r="F10" s="38" t="s">
         <v>267</v>
       </c>
       <c r="G10" s="27">
@@ -13607,7 +13626,7 @@
       <c r="O10" s="27">
         <v>4</v>
       </c>
-      <c r="P10" s="34">
+      <c r="P10" s="33">
         <v>66.656000000000006</v>
       </c>
       <c r="Q10" s="27"/>
@@ -13631,7 +13650,7 @@
       <c r="E11" s="27">
         <v>2023</v>
       </c>
-      <c r="F11" s="28" t="s">
+      <c r="F11" s="38" t="s">
         <v>267</v>
       </c>
       <c r="G11" s="27">
@@ -13661,7 +13680,7 @@
       <c r="O11" s="27">
         <v>4.3</v>
       </c>
-      <c r="P11" s="34">
+      <c r="P11" s="33">
         <v>100</v>
       </c>
       <c r="Q11" s="27"/>
@@ -13685,7 +13704,7 @@
       <c r="E12" s="27">
         <v>2023</v>
       </c>
-      <c r="F12" s="28" t="s">
+      <c r="F12" s="38" t="s">
         <v>267</v>
       </c>
       <c r="G12" s="27">
@@ -13715,7 +13734,7 @@
       <c r="O12" s="27">
         <v>6.3</v>
       </c>
-      <c r="P12" s="34">
+      <c r="P12" s="33">
         <v>95.831999999999994</v>
       </c>
       <c r="Q12" s="27"/>
@@ -13739,7 +13758,7 @@
       <c r="E13" s="27">
         <v>2023</v>
       </c>
-      <c r="F13" s="28" t="s">
+      <c r="F13" s="38" t="s">
         <v>268</v>
       </c>
       <c r="G13" s="27">
@@ -13769,7 +13788,7 @@
       <c r="O13" s="27">
         <v>7.1</v>
       </c>
-      <c r="P13" s="34">
+      <c r="P13" s="33">
         <v>83.328000000000003</v>
       </c>
       <c r="Q13" s="27"/>
@@ -13793,7 +13812,7 @@
       <c r="E14" s="27">
         <v>2023</v>
       </c>
-      <c r="F14" s="28" t="s">
+      <c r="F14" s="38" t="s">
         <v>268</v>
       </c>
       <c r="G14" s="27">
@@ -13823,7 +13842,7 @@
       <c r="O14" s="27">
         <v>7</v>
       </c>
-      <c r="P14" s="34">
+      <c r="P14" s="33">
         <v>97.915999999999997</v>
       </c>
       <c r="Q14" s="27"/>
@@ -13847,7 +13866,7 @@
       <c r="E15" s="27">
         <v>2023</v>
       </c>
-      <c r="F15" s="28" t="s">
+      <c r="F15" s="38" t="s">
         <v>268</v>
       </c>
       <c r="G15" s="27">
@@ -13877,7 +13896,7 @@
       <c r="O15" s="27">
         <v>4</v>
       </c>
-      <c r="P15" s="34">
+      <c r="P15" s="33">
         <v>29.143999999999991</v>
       </c>
       <c r="Q15" s="27"/>
@@ -13901,7 +13920,7 @@
       <c r="E16" s="27">
         <v>2023</v>
       </c>
-      <c r="F16" s="28" t="s">
+      <c r="F16" s="38" t="s">
         <v>268</v>
       </c>
       <c r="G16" s="27">
@@ -13931,7 +13950,7 @@
       <c r="O16" s="27">
         <v>9.5</v>
       </c>
-      <c r="P16" s="34">
+      <c r="P16" s="33">
         <v>94.79</v>
       </c>
       <c r="Q16" s="27"/>
@@ -13955,7 +13974,7 @@
       <c r="E17" s="27">
         <v>2023</v>
       </c>
-      <c r="F17" s="28" t="s">
+      <c r="F17" s="38" t="s">
         <v>268</v>
       </c>
       <c r="G17" s="27">
@@ -13985,7 +14004,7 @@
       <c r="O17" s="27">
         <v>5</v>
       </c>
-      <c r="P17" s="34">
+      <c r="P17" s="33">
         <v>95.831999999999994</v>
       </c>
       <c r="Q17" s="27"/>
@@ -14009,7 +14028,7 @@
       <c r="E18" s="27">
         <v>2023</v>
       </c>
-      <c r="F18" s="28" t="s">
+      <c r="F18" s="38" t="s">
         <v>268</v>
       </c>
       <c r="G18" s="27">
@@ -14039,7 +14058,7 @@
       <c r="O18" s="27">
         <v>5</v>
       </c>
-      <c r="P18" s="34">
+      <c r="P18" s="33">
         <v>98.957999999999998</v>
       </c>
       <c r="Q18" s="27"/>
@@ -14063,7 +14082,7 @@
       <c r="E19" s="27">
         <v>2023</v>
       </c>
-      <c r="F19" s="28" t="s">
+      <c r="F19" s="38" t="s">
         <v>268</v>
       </c>
       <c r="G19" s="27">
@@ -14093,7 +14112,7 @@
       <c r="O19" s="27">
         <v>5.3</v>
       </c>
-      <c r="P19" s="34">
+      <c r="P19" s="33">
         <v>93.748000000000005</v>
       </c>
       <c r="Q19" s="27"/>
@@ -14117,7 +14136,7 @@
       <c r="E20" s="27">
         <v>2023</v>
       </c>
-      <c r="F20" s="28" t="s">
+      <c r="F20" s="38" t="s">
         <v>268</v>
       </c>
       <c r="G20" s="27">
@@ -14147,7 +14166,7 @@
       <c r="O20" s="27">
         <v>5.3</v>
       </c>
-      <c r="P20" s="34">
+      <c r="P20" s="33">
         <v>18.724000000000004</v>
       </c>
       <c r="Q20" s="27"/>
@@ -14171,7 +14190,7 @@
       <c r="E21" s="27">
         <v>2023</v>
       </c>
-      <c r="F21" s="28" t="s">
+      <c r="F21" s="38" t="s">
         <v>268</v>
       </c>
       <c r="G21" s="27">
@@ -14201,7 +14220,7 @@
       <c r="O21" s="27">
         <v>5.6</v>
       </c>
-      <c r="P21" s="34">
+      <c r="P21" s="33">
         <v>98.957999999999998</v>
       </c>
       <c r="Q21" s="27"/>
@@ -14225,7 +14244,7 @@
       <c r="E22" s="27">
         <v>2023</v>
       </c>
-      <c r="F22" s="28" t="s">
+      <c r="F22" s="38" t="s">
         <v>268</v>
       </c>
       <c r="G22" s="27">
@@ -14255,7 +14274,7 @@
       <c r="O22" s="27">
         <v>6.3</v>
       </c>
-      <c r="P22" s="34">
+      <c r="P22" s="33">
         <v>98.957999999999998</v>
       </c>
       <c r="Q22" s="27"/>
@@ -14279,7 +14298,7 @@
       <c r="E23" s="27">
         <v>2023</v>
       </c>
-      <c r="F23" s="28" t="s">
+      <c r="F23" s="38" t="s">
         <v>269</v>
       </c>
       <c r="G23" s="27">
@@ -14309,7 +14328,7 @@
       <c r="O23" s="27">
         <v>5.5</v>
       </c>
-      <c r="P23" s="34">
+      <c r="P23" s="33">
         <v>87.495999999999995</v>
       </c>
       <c r="Q23" s="27"/>
@@ -14333,7 +14352,7 @@
       <c r="E24" s="27">
         <v>2023</v>
       </c>
-      <c r="F24" s="28" t="s">
+      <c r="F24" s="38" t="s">
         <v>269</v>
       </c>
       <c r="G24" s="27">
@@ -14363,7 +14382,7 @@
       <c r="O24" s="27">
         <v>4</v>
       </c>
-      <c r="P24" s="34">
+      <c r="P24" s="33">
         <v>87.495999999999995</v>
       </c>
       <c r="Q24" s="27"/>
@@ -14387,7 +14406,7 @@
       <c r="E25" s="27">
         <v>2023</v>
       </c>
-      <c r="F25" s="28" t="s">
+      <c r="F25" s="38" t="s">
         <v>269</v>
       </c>
       <c r="G25" s="27">
@@ -14417,7 +14436,7 @@
       <c r="O25" s="27">
         <v>5.0999999999999996</v>
       </c>
-      <c r="P25" s="34">
+      <c r="P25" s="33">
         <v>91.664000000000001</v>
       </c>
       <c r="Q25" s="27"/>
@@ -14441,7 +14460,7 @@
       <c r="E26" s="27">
         <v>2023</v>
       </c>
-      <c r="F26" s="28" t="s">
+      <c r="F26" s="38" t="s">
         <v>269</v>
       </c>
       <c r="G26" s="27">
@@ -14471,7 +14490,7 @@
       <c r="O26" s="27">
         <v>4</v>
       </c>
-      <c r="P26" s="34">
+      <c r="P26" s="33">
         <v>92.706000000000003</v>
       </c>
       <c r="Q26" s="27"/>
@@ -14495,7 +14514,7 @@
       <c r="E27" s="27">
         <v>2023</v>
       </c>
-      <c r="F27" s="28" t="s">
+      <c r="F27" s="38" t="s">
         <v>269</v>
       </c>
       <c r="G27" s="27">
@@ -14525,7 +14544,7 @@
       <c r="O27" s="27">
         <v>5.0999999999999996</v>
       </c>
-      <c r="P27" s="34">
+      <c r="P27" s="33">
         <v>88.537999999999997</v>
       </c>
       <c r="Q27" s="27"/>
@@ -14549,7 +14568,7 @@
       <c r="E28" s="27">
         <v>2023</v>
       </c>
-      <c r="F28" s="28" t="s">
+      <c r="F28" s="38" t="s">
         <v>269</v>
       </c>
       <c r="G28" s="27">
@@ -14579,7 +14598,7 @@
       <c r="O28" s="27">
         <v>3.8</v>
       </c>
-      <c r="P28" s="34">
+      <c r="P28" s="33">
         <v>43.731999999999999</v>
       </c>
       <c r="Q28" s="27"/>
@@ -14603,7 +14622,7 @@
       <c r="E29" s="27">
         <v>2023</v>
       </c>
-      <c r="F29" s="28" t="s">
+      <c r="F29" s="38" t="s">
         <v>269</v>
       </c>
       <c r="G29" s="27">
@@ -14633,7 +14652,7 @@
       <c r="O29" s="27">
         <v>8</v>
       </c>
-      <c r="P29" s="34">
+      <c r="P29" s="33">
         <v>86.453999999999994</v>
       </c>
       <c r="Q29" s="27"/>
@@ -14657,7 +14676,7 @@
       <c r="E30" s="27">
         <v>2023</v>
       </c>
-      <c r="F30" s="28" t="s">
+      <c r="F30" s="38" t="s">
         <v>269</v>
       </c>
       <c r="G30" s="27">
@@ -14687,7 +14706,7 @@
       <c r="O30" s="27">
         <v>7.6</v>
       </c>
-      <c r="P30" s="34">
+      <c r="P30" s="33">
         <v>72.908000000000001</v>
       </c>
       <c r="Q30" s="27"/>
@@ -14711,7 +14730,7 @@
       <c r="E31" s="27">
         <v>2023</v>
       </c>
-      <c r="F31" s="28" t="s">
+      <c r="F31" s="38" t="s">
         <v>269</v>
       </c>
       <c r="G31" s="27">
@@ -14741,7 +14760,7 @@
       <c r="O31" s="27">
         <v>3.3</v>
       </c>
-      <c r="P31" s="34">
+      <c r="P31" s="33">
         <v>95.831999999999994</v>
       </c>
       <c r="Q31" s="27"/>
@@ -14765,7 +14784,7 @@
       <c r="E32" s="27">
         <v>2023</v>
       </c>
-      <c r="F32" s="28" t="s">
+      <c r="F32" s="38" t="s">
         <v>269</v>
       </c>
       <c r="G32" s="27">
@@ -14795,7 +14814,7 @@
       <c r="O32" s="27">
         <v>7.6</v>
       </c>
-      <c r="P32" s="34">
+      <c r="P32" s="33">
         <v>83.328000000000003</v>
       </c>
       <c r="Q32" s="27"/>
@@ -14819,7 +14838,7 @@
       <c r="E33" s="27">
         <v>2023</v>
       </c>
-      <c r="F33" s="28" t="s">
+      <c r="F33" s="38" t="s">
         <v>270</v>
       </c>
       <c r="G33" s="27">
@@ -14849,7 +14868,7 @@
       <c r="O33" s="29">
         <v>8</v>
       </c>
-      <c r="P33" s="34">
+      <c r="P33" s="33">
         <v>96.873999999999995</v>
       </c>
       <c r="Q33" s="27"/>
@@ -14873,7 +14892,7 @@
       <c r="E34" s="27">
         <v>2023</v>
       </c>
-      <c r="F34" s="28" t="s">
+      <c r="F34" s="38" t="s">
         <v>270</v>
       </c>
       <c r="G34" s="27">
@@ -14903,7 +14922,7 @@
       <c r="O34" s="29">
         <v>3.5</v>
       </c>
-      <c r="P34" s="34">
+      <c r="P34" s="33">
         <v>94.79</v>
       </c>
       <c r="Q34" s="27"/>
@@ -14927,7 +14946,7 @@
       <c r="E35" s="27">
         <v>2023</v>
       </c>
-      <c r="F35" s="28" t="s">
+      <c r="F35" s="38" t="s">
         <v>270</v>
       </c>
       <c r="G35" s="27">
@@ -14957,7 +14976,7 @@
       <c r="O35" s="29">
         <v>5</v>
       </c>
-      <c r="P35" s="34">
+      <c r="P35" s="33">
         <v>97.915999999999997</v>
       </c>
       <c r="Q35" s="27"/>
@@ -14981,7 +15000,7 @@
       <c r="E36" s="27">
         <v>2023</v>
       </c>
-      <c r="F36" s="28" t="s">
+      <c r="F36" s="38" t="s">
         <v>270</v>
       </c>
       <c r="G36" s="27">
@@ -15011,7 +15030,7 @@
       <c r="O36" s="29">
         <v>3.5</v>
       </c>
-      <c r="P36" s="34">
+      <c r="P36" s="33">
         <v>79.16</v>
       </c>
       <c r="Q36" s="27"/>
@@ -15035,7 +15054,7 @@
       <c r="E37" s="27">
         <v>2023</v>
       </c>
-      <c r="F37" s="28" t="s">
+      <c r="F37" s="38" t="s">
         <v>270</v>
       </c>
       <c r="G37" s="27">
@@ -15065,7 +15084,7 @@
       <c r="O37" s="29">
         <v>1.7</v>
       </c>
-      <c r="P37" s="34">
+      <c r="P37" s="33">
         <v>0</v>
       </c>
       <c r="Q37" s="27"/>
@@ -15089,7 +15108,7 @@
       <c r="E38" s="27">
         <v>2023</v>
       </c>
-      <c r="F38" s="28" t="s">
+      <c r="F38" s="38" t="s">
         <v>270</v>
       </c>
       <c r="G38" s="27">
@@ -15119,7 +15138,7 @@
       <c r="O38" s="29">
         <v>6.3</v>
       </c>
-      <c r="P38" s="34">
+      <c r="P38" s="33">
         <v>94.79</v>
       </c>
       <c r="Q38" s="27"/>
@@ -15143,7 +15162,7 @@
       <c r="E39" s="27">
         <v>2023</v>
       </c>
-      <c r="F39" s="28" t="s">
+      <c r="F39" s="38" t="s">
         <v>270</v>
       </c>
       <c r="G39" s="27">
@@ -15173,7 +15192,7 @@
       <c r="O39" s="29">
         <v>4</v>
       </c>
-      <c r="P39" s="34">
+      <c r="P39" s="33">
         <v>95.831999999999994</v>
       </c>
       <c r="Q39" s="27"/>
@@ -15197,7 +15216,7 @@
       <c r="E40" s="27">
         <v>2023</v>
       </c>
-      <c r="F40" s="28" t="s">
+      <c r="F40" s="38" t="s">
         <v>270</v>
       </c>
       <c r="G40" s="27">
@@ -15227,7 +15246,7 @@
       <c r="O40" s="29">
         <v>5</v>
       </c>
-      <c r="P40" s="34">
+      <c r="P40" s="33">
         <v>94.79</v>
       </c>
       <c r="Q40" s="27"/>
@@ -15251,7 +15270,7 @@
       <c r="E41" s="27">
         <v>2023</v>
       </c>
-      <c r="F41" s="28" t="s">
+      <c r="F41" s="38" t="s">
         <v>270</v>
       </c>
       <c r="G41" s="27">
@@ -15281,7 +15300,7 @@
       <c r="O41" s="29">
         <v>3.3</v>
       </c>
-      <c r="P41" s="34">
+      <c r="P41" s="33">
         <v>18.724000000000004</v>
       </c>
       <c r="Q41" s="27"/>
@@ -15305,7 +15324,7 @@
       <c r="E42" s="27">
         <v>2023</v>
       </c>
-      <c r="F42" s="28" t="s">
+      <c r="F42" s="38" t="s">
         <v>270</v>
       </c>
       <c r="G42" s="27">
@@ -15335,7 +15354,7 @@
       <c r="O42" s="27">
         <v>4</v>
       </c>
-      <c r="P42" s="34">
+      <c r="P42" s="33">
         <v>0</v>
       </c>
       <c r="Q42" s="27"/>
@@ -15359,7 +15378,7 @@
       <c r="E43" s="27">
         <v>2023</v>
       </c>
-      <c r="F43" s="28" t="s">
+      <c r="F43" s="38" t="s">
         <v>273</v>
       </c>
       <c r="G43" s="27">
@@ -15389,7 +15408,7 @@
       <c r="O43" s="27">
         <v>4.4000000000000004</v>
       </c>
-      <c r="P43" s="34">
+      <c r="P43" s="33">
         <v>24.975999999999999</v>
       </c>
       <c r="Q43" s="27"/>
@@ -15413,7 +15432,7 @@
       <c r="E44" s="27">
         <v>2023</v>
       </c>
-      <c r="F44" s="28" t="s">
+      <c r="F44" s="38" t="s">
         <v>273</v>
       </c>
       <c r="G44" s="27">
@@ -15443,7 +15462,7 @@
       <c r="O44" s="27">
         <v>6.1</v>
       </c>
-      <c r="P44" s="34">
+      <c r="P44" s="33">
         <v>0</v>
       </c>
       <c r="Q44" s="27"/>
@@ -15467,7 +15486,7 @@
       <c r="E45" s="27">
         <v>2023</v>
       </c>
-      <c r="F45" s="28" t="s">
+      <c r="F45" s="38" t="s">
         <v>273</v>
       </c>
       <c r="G45" s="27">
@@ -15497,7 +15516,7 @@
       <c r="O45" s="27">
         <v>7.5</v>
       </c>
-      <c r="P45" s="34">
+      <c r="P45" s="33">
         <v>0</v>
       </c>
       <c r="Q45" s="27"/>
@@ -15521,7 +15540,7 @@
       <c r="E46" s="27">
         <v>2023</v>
       </c>
-      <c r="F46" s="28" t="s">
+      <c r="F46" s="38" t="s">
         <v>273</v>
       </c>
       <c r="G46" s="27">
@@ -15551,7 +15570,7 @@
       <c r="O46" s="27">
         <v>8.5</v>
       </c>
-      <c r="P46" s="34">
+      <c r="P46" s="33">
         <v>88.537999999999997</v>
       </c>
       <c r="Q46" s="27"/>
@@ -15575,7 +15594,7 @@
       <c r="E47" s="27">
         <v>2023</v>
       </c>
-      <c r="F47" s="28" t="s">
+      <c r="F47" s="38" t="s">
         <v>273</v>
       </c>
       <c r="G47" s="27">
@@ -15605,7 +15624,7 @@
       <c r="O47" s="27">
         <v>6.2</v>
       </c>
-      <c r="P47" s="34">
+      <c r="P47" s="33">
         <v>24.975999999999999</v>
       </c>
       <c r="Q47" s="27"/>
@@ -15629,7 +15648,7 @@
       <c r="E48" s="27">
         <v>2023</v>
       </c>
-      <c r="F48" s="28" t="s">
+      <c r="F48" s="38" t="s">
         <v>273</v>
       </c>
       <c r="G48" s="27">
@@ -15659,7 +15678,7 @@
       <c r="O48" s="27">
         <v>4.5999999999999996</v>
       </c>
-      <c r="P48" s="34">
+      <c r="P48" s="33">
         <v>79.16</v>
       </c>
       <c r="Q48" s="27"/>
@@ -15683,7 +15702,7 @@
       <c r="E49" s="27">
         <v>2023</v>
       </c>
-      <c r="F49" s="28" t="s">
+      <c r="F49" s="38" t="s">
         <v>273</v>
       </c>
       <c r="G49" s="27">
@@ -15713,7 +15732,7 @@
       <c r="O49" s="27">
         <v>4.5999999999999996</v>
       </c>
-      <c r="P49" s="34">
+      <c r="P49" s="33">
         <v>0</v>
       </c>
       <c r="Q49" s="27"/>
@@ -15737,7 +15756,7 @@
       <c r="E50" s="27">
         <v>2023</v>
       </c>
-      <c r="F50" s="28" t="s">
+      <c r="F50" s="38" t="s">
         <v>273</v>
       </c>
       <c r="G50" s="27">
@@ -15767,7 +15786,7 @@
       <c r="O50" s="27">
         <v>8</v>
       </c>
-      <c r="P50" s="34">
+      <c r="P50" s="33">
         <v>47.9</v>
       </c>
       <c r="Q50" s="27"/>
@@ -15791,7 +15810,7 @@
       <c r="E51" s="27">
         <v>2023</v>
       </c>
-      <c r="F51" s="28" t="s">
+      <c r="F51" s="38" t="s">
         <v>273</v>
       </c>
       <c r="G51" s="27">
@@ -15821,7 +15840,7 @@
       <c r="O51" s="27">
         <v>9.6</v>
       </c>
-      <c r="P51" s="34">
+      <c r="P51" s="33">
         <v>83.328000000000003</v>
       </c>
       <c r="Q51" s="27"/>
@@ -15845,7 +15864,7 @@
       <c r="E52" s="27">
         <v>2023</v>
       </c>
-      <c r="F52" s="28" t="s">
+      <c r="F52" s="38" t="s">
         <v>273</v>
       </c>
       <c r="G52" s="27">
@@ -15875,7 +15894,7 @@
       <c r="O52" s="27">
         <v>9.6</v>
       </c>
-      <c r="P52" s="34">
+      <c r="P52" s="33">
         <v>35.396000000000001</v>
       </c>
       <c r="Q52" s="27"/>
@@ -15899,7 +15918,7 @@
       <c r="E53" s="27">
         <v>2023</v>
       </c>
-      <c r="F53" s="27" t="s">
+      <c r="F53" s="37" t="s">
         <v>274</v>
       </c>
       <c r="G53" s="27">
@@ -15929,7 +15948,7 @@
       <c r="O53" s="27">
         <v>1</v>
       </c>
-      <c r="P53" s="34">
+      <c r="P53" s="33">
         <v>92.706000000000003</v>
       </c>
       <c r="Q53" s="27"/>
@@ -15953,7 +15972,7 @@
       <c r="E54" s="27">
         <v>2023</v>
       </c>
-      <c r="F54" s="27" t="s">
+      <c r="F54" s="37" t="s">
         <v>274</v>
       </c>
       <c r="G54" s="27">
@@ -15983,7 +16002,7 @@
       <c r="O54" s="27">
         <v>1</v>
       </c>
-      <c r="P54" s="34">
+      <c r="P54" s="33">
         <v>93.748000000000005</v>
       </c>
       <c r="Q54" s="27"/>
@@ -16007,7 +16026,7 @@
       <c r="E55" s="27">
         <v>2023</v>
       </c>
-      <c r="F55" s="27" t="s">
+      <c r="F55" s="37" t="s">
         <v>274</v>
       </c>
       <c r="G55" s="27">
@@ -16037,7 +16056,7 @@
       <c r="O55" s="27">
         <v>1.3</v>
       </c>
-      <c r="P55" s="34">
+      <c r="P55" s="33">
         <v>83.328000000000003</v>
       </c>
       <c r="Q55" s="27"/>
@@ -16061,7 +16080,7 @@
       <c r="E56" s="27">
         <v>2023</v>
       </c>
-      <c r="F56" s="27" t="s">
+      <c r="F56" s="37" t="s">
         <v>274</v>
       </c>
       <c r="G56" s="27">
@@ -16091,7 +16110,7 @@
       <c r="O56" s="27">
         <v>2.1</v>
       </c>
-      <c r="P56" s="34">
+      <c r="P56" s="33">
         <v>95.831999999999994</v>
       </c>
       <c r="Q56" s="27"/>
@@ -16115,7 +16134,7 @@
       <c r="E57" s="27">
         <v>2023</v>
       </c>
-      <c r="F57" s="27" t="s">
+      <c r="F57" s="37" t="s">
         <v>274</v>
       </c>
       <c r="G57" s="27">
@@ -16145,7 +16164,7 @@
       <c r="O57" s="27">
         <v>1.3</v>
       </c>
-      <c r="P57" s="34">
+      <c r="P57" s="33">
         <v>94.998400000000004</v>
       </c>
       <c r="Q57" s="27"/>
@@ -16169,7 +16188,7 @@
       <c r="E58" s="27">
         <v>2023</v>
       </c>
-      <c r="F58" s="27" t="s">
+      <c r="F58" s="37" t="s">
         <v>274</v>
       </c>
       <c r="G58" s="27">
@@ -16199,7 +16218,7 @@
       <c r="O58" s="27">
         <v>1</v>
       </c>
-      <c r="P58" s="34">
+      <c r="P58" s="33">
         <v>100</v>
       </c>
       <c r="Q58" s="27"/>
@@ -16223,7 +16242,7 @@
       <c r="E59" s="27">
         <v>2023</v>
       </c>
-      <c r="F59" s="27" t="s">
+      <c r="F59" s="37" t="s">
         <v>274</v>
       </c>
       <c r="G59" s="27">
@@ -16253,7 +16272,7 @@
       <c r="O59" s="27">
         <v>1</v>
       </c>
-      <c r="P59" s="34">
+      <c r="P59" s="33">
         <v>97.915999999999997</v>
       </c>
       <c r="Q59" s="27"/>
@@ -16277,7 +16296,7 @@
       <c r="E60" s="27">
         <v>2023</v>
       </c>
-      <c r="F60" s="27" t="s">
+      <c r="F60" s="37" t="s">
         <v>274</v>
       </c>
       <c r="G60" s="27">
@@ -16307,7 +16326,7 @@
       <c r="O60" s="27">
         <v>2.6</v>
       </c>
-      <c r="P60" s="34">
+      <c r="P60" s="33">
         <v>86.453999999999994</v>
       </c>
       <c r="Q60" s="27"/>
@@ -16331,7 +16350,7 @@
       <c r="E61" s="27">
         <v>2023</v>
       </c>
-      <c r="F61" s="27" t="s">
+      <c r="F61" s="37" t="s">
         <v>274</v>
       </c>
       <c r="G61" s="27">
@@ -16361,7 +16380,7 @@
       <c r="O61" s="27">
         <v>1.3</v>
       </c>
-      <c r="P61" s="34">
+      <c r="P61" s="33">
         <v>98.957999999999998</v>
       </c>
       <c r="Q61" s="27"/>
@@ -16385,7 +16404,7 @@
       <c r="E62" s="27">
         <v>2023</v>
       </c>
-      <c r="F62" s="27" t="s">
+      <c r="F62" s="37" t="s">
         <v>274</v>
       </c>
       <c r="G62" s="27">
@@ -16415,7 +16434,7 @@
       <c r="O62" s="27">
         <v>1</v>
       </c>
-      <c r="P62" s="34">
+      <c r="P62" s="33">
         <v>100</v>
       </c>
       <c r="Q62" s="27"/>
@@ -16439,7 +16458,7 @@
       <c r="E63" s="27">
         <v>2023</v>
       </c>
-      <c r="F63" s="27" t="s">
+      <c r="F63" s="37" t="s">
         <v>274</v>
       </c>
       <c r="G63" s="27">
@@ -16469,7 +16488,7 @@
       <c r="O63" s="27">
         <v>1</v>
       </c>
-      <c r="P63" s="34">
+      <c r="P63" s="33">
         <v>79.16</v>
       </c>
       <c r="Q63" s="27"/>
@@ -16493,7 +16512,7 @@
       <c r="E64" s="27">
         <v>2023</v>
       </c>
-      <c r="F64" s="27" t="s">
+      <c r="F64" s="37" t="s">
         <v>274</v>
       </c>
       <c r="G64" s="27">
@@ -16523,7 +16542,7 @@
       <c r="O64" s="27">
         <v>2.5</v>
       </c>
-      <c r="P64" s="34">
+      <c r="P64" s="33">
         <v>92.706000000000003</v>
       </c>
       <c r="Q64" s="27"/>
@@ -16547,7 +16566,7 @@
       <c r="E65" s="27">
         <v>2023</v>
       </c>
-      <c r="F65" s="27" t="s">
+      <c r="F65" s="37" t="s">
         <v>274</v>
       </c>
       <c r="G65" s="27">
@@ -16577,7 +16596,7 @@
       <c r="O65" s="27">
         <v>4</v>
       </c>
-      <c r="P65" s="34">
+      <c r="P65" s="33">
         <v>88.537999999999997</v>
       </c>
       <c r="Q65" s="27"/>
@@ -16601,7 +16620,7 @@
       <c r="E66" s="27">
         <v>2023</v>
       </c>
-      <c r="F66" s="27" t="s">
+      <c r="F66" s="37" t="s">
         <v>274</v>
       </c>
       <c r="G66" s="27">
@@ -16631,7 +16650,7 @@
       <c r="O66" s="27">
         <v>1.7</v>
       </c>
-      <c r="P66" s="34">
+      <c r="P66" s="33">
         <v>85.412000000000006</v>
       </c>
       <c r="Q66" s="27"/>
@@ -16655,7 +16674,7 @@
       <c r="E67" s="27">
         <v>2023</v>
       </c>
-      <c r="F67" s="27" t="s">
+      <c r="F67" s="37" t="s">
         <v>274</v>
       </c>
       <c r="G67" s="27">
@@ -16685,7 +16704,7 @@
       <c r="O67" s="27">
         <v>2.8</v>
       </c>
-      <c r="P67" s="34">
+      <c r="P67" s="33">
         <v>91.664000000000001</v>
       </c>
       <c r="Q67" s="27"/>
@@ -16709,7 +16728,7 @@
       <c r="E68" s="27">
         <v>2023</v>
       </c>
-      <c r="F68" s="27" t="s">
+      <c r="F68" s="37" t="s">
         <v>274</v>
       </c>
       <c r="G68" s="27">
@@ -16739,7 +16758,7 @@
       <c r="O68" s="27">
         <v>1</v>
       </c>
-      <c r="P68" s="34">
+      <c r="P68" s="33">
         <v>89.58</v>
       </c>
       <c r="Q68" s="27"/>
@@ -16763,7 +16782,7 @@
       <c r="E69" s="27">
         <v>2023</v>
       </c>
-      <c r="F69" s="27" t="s">
+      <c r="F69" s="37" t="s">
         <v>274</v>
       </c>
       <c r="G69" s="27">
@@ -16793,7 +16812,7 @@
       <c r="O69" s="27">
         <v>1</v>
       </c>
-      <c r="P69" s="34">
+      <c r="P69" s="33">
         <v>100</v>
       </c>
       <c r="Q69" s="27"/>
@@ -16817,7 +16836,7 @@
       <c r="E70" s="27">
         <v>2023</v>
       </c>
-      <c r="F70" s="27" t="s">
+      <c r="F70" s="37" t="s">
         <v>274</v>
       </c>
       <c r="G70" s="27">
@@ -16847,7 +16866,7 @@
       <c r="O70" s="27">
         <v>3.6</v>
       </c>
-      <c r="P70" s="34">
+      <c r="P70" s="33">
         <v>91.664000000000001</v>
       </c>
       <c r="Q70" s="27"/>
@@ -16871,7 +16890,7 @@
       <c r="E71" s="27">
         <v>2023</v>
       </c>
-      <c r="F71" s="27" t="s">
+      <c r="F71" s="37" t="s">
         <v>274</v>
       </c>
       <c r="G71" s="27">
@@ -16901,7 +16920,7 @@
       <c r="O71" s="27">
         <v>2</v>
       </c>
-      <c r="P71" s="34">
+      <c r="P71" s="33">
         <v>98.957999999999998</v>
       </c>
       <c r="Q71" s="27"/>
@@ -16925,7 +16944,7 @@
       <c r="E72" s="27">
         <v>2023</v>
       </c>
-      <c r="F72" s="27" t="s">
+      <c r="F72" s="37" t="s">
         <v>274</v>
       </c>
       <c r="G72" s="27">
@@ -16955,7 +16974,7 @@
       <c r="O72" s="27">
         <v>2</v>
       </c>
-      <c r="P72" s="34">
+      <c r="P72" s="33">
         <v>98.957999999999998</v>
       </c>
       <c r="Q72" s="27"/>
@@ -16979,7 +16998,7 @@
       <c r="E73" s="27">
         <v>2023</v>
       </c>
-      <c r="F73" s="28" t="s">
+      <c r="F73" s="38" t="s">
         <v>276</v>
       </c>
       <c r="G73" s="27">
@@ -17009,7 +17028,7 @@
       <c r="O73" s="27">
         <v>1.3</v>
       </c>
-      <c r="P73" s="34">
+      <c r="P73" s="33">
         <v>39.564</v>
       </c>
       <c r="Q73" s="27"/>
@@ -17033,7 +17052,7 @@
       <c r="E74" s="27">
         <v>2023</v>
       </c>
-      <c r="F74" s="28" t="s">
+      <c r="F74" s="38" t="s">
         <v>276</v>
       </c>
       <c r="G74" s="27">
@@ -17063,7 +17082,7 @@
       <c r="O74" s="27">
         <v>3</v>
       </c>
-      <c r="P74" s="34">
+      <c r="P74" s="33">
         <v>95.831999999999994</v>
       </c>
       <c r="Q74" s="27"/>
@@ -17087,7 +17106,7 @@
       <c r="E75" s="27">
         <v>2023</v>
       </c>
-      <c r="F75" s="28" t="s">
+      <c r="F75" s="38" t="s">
         <v>276</v>
       </c>
       <c r="G75" s="27">
@@ -17117,7 +17136,7 @@
       <c r="O75" s="27">
         <v>9</v>
       </c>
-      <c r="P75" s="34">
+      <c r="P75" s="33">
         <v>89.58</v>
       </c>
       <c r="Q75" s="27"/>
@@ -17141,7 +17160,7 @@
       <c r="E76" s="27">
         <v>2023</v>
       </c>
-      <c r="F76" s="28" t="s">
+      <c r="F76" s="38" t="s">
         <v>276</v>
       </c>
       <c r="G76" s="27">
@@ -17171,7 +17190,7 @@
       <c r="O76" s="27">
         <v>1</v>
       </c>
-      <c r="P76" s="34">
+      <c r="P76" s="33">
         <v>93.748000000000005</v>
       </c>
       <c r="Q76" s="27"/>
@@ -17195,7 +17214,7 @@
       <c r="E77" s="27">
         <v>2023</v>
       </c>
-      <c r="F77" s="28" t="s">
+      <c r="F77" s="38" t="s">
         <v>276</v>
       </c>
       <c r="G77" s="27">
@@ -17225,7 +17244,7 @@
       <c r="O77" s="27">
         <v>1.2</v>
       </c>
-      <c r="P77" s="34">
+      <c r="P77" s="33">
         <v>85.412000000000006</v>
       </c>
       <c r="Q77" s="27"/>
@@ -17249,7 +17268,7 @@
       <c r="E78" s="27">
         <v>2023</v>
       </c>
-      <c r="F78" s="28" t="s">
+      <c r="F78" s="38" t="s">
         <v>276</v>
       </c>
       <c r="G78" s="27">
@@ -17279,7 +17298,7 @@
       <c r="O78" s="27">
         <v>4</v>
       </c>
-      <c r="P78" s="34">
+      <c r="P78" s="33">
         <v>65.614000000000004</v>
       </c>
       <c r="Q78" s="27"/>
@@ -17303,7 +17322,7 @@
       <c r="E79" s="27">
         <v>2023</v>
       </c>
-      <c r="F79" s="28" t="s">
+      <c r="F79" s="38" t="s">
         <v>276</v>
       </c>
       <c r="G79" s="27">
@@ -17333,7 +17352,7 @@
       <c r="O79" s="27">
         <v>4.3</v>
       </c>
-      <c r="P79" s="34">
+      <c r="P79" s="33">
         <v>95.831999999999994</v>
       </c>
       <c r="Q79" s="27"/>
@@ -17357,7 +17376,7 @@
       <c r="E80" s="27">
         <v>2023</v>
       </c>
-      <c r="F80" s="28" t="s">
+      <c r="F80" s="38" t="s">
         <v>276</v>
       </c>
       <c r="G80" s="27">
@@ -17387,7 +17406,7 @@
       <c r="O80" s="27">
         <v>4.3</v>
       </c>
-      <c r="P80" s="34">
+      <c r="P80" s="33">
         <v>97.915999999999997</v>
       </c>
       <c r="Q80" s="27"/>
@@ -17411,7 +17430,7 @@
       <c r="E81" s="27">
         <v>2023</v>
       </c>
-      <c r="F81" s="28" t="s">
+      <c r="F81" s="38" t="s">
         <v>276</v>
       </c>
       <c r="G81" s="27">
@@ -17441,7 +17460,7 @@
       <c r="O81" s="27">
         <v>1</v>
       </c>
-      <c r="P81" s="34">
+      <c r="P81" s="33">
         <v>45.815999999999995</v>
       </c>
       <c r="Q81" s="27"/>
@@ -17465,7 +17484,7 @@
       <c r="E82" s="27">
         <v>2023</v>
       </c>
-      <c r="F82" s="28" t="s">
+      <c r="F82" s="38" t="s">
         <v>276</v>
       </c>
       <c r="G82" s="27">
@@ -17495,7 +17514,7 @@
       <c r="O82" s="27">
         <v>1</v>
       </c>
-      <c r="P82" s="34">
+      <c r="P82" s="33">
         <v>91.664000000000001</v>
       </c>
       <c r="Q82" s="27"/>
@@ -17519,7 +17538,7 @@
       <c r="E83" s="27">
         <v>2023</v>
       </c>
-      <c r="F83" s="28" t="s">
+      <c r="F83" s="38" t="s">
         <v>277</v>
       </c>
       <c r="G83" s="27">
@@ -17549,7 +17568,7 @@
       <c r="O83" s="27">
         <v>1</v>
       </c>
-      <c r="P83" s="34">
+      <c r="P83" s="33">
         <v>81.244</v>
       </c>
       <c r="Q83" s="27"/>
@@ -17573,7 +17592,7 @@
       <c r="E84" s="27">
         <v>2023</v>
       </c>
-      <c r="F84" s="28" t="s">
+      <c r="F84" s="38" t="s">
         <v>277</v>
       </c>
       <c r="G84" s="27">
@@ -17603,7 +17622,7 @@
       <c r="O84" s="27">
         <v>2.2000000000000002</v>
       </c>
-      <c r="P84" s="34">
+      <c r="P84" s="33">
         <v>91.664000000000001</v>
       </c>
       <c r="Q84" s="27"/>
@@ -17627,7 +17646,7 @@
       <c r="E85" s="27">
         <v>2023</v>
       </c>
-      <c r="F85" s="28" t="s">
+      <c r="F85" s="38" t="s">
         <v>277</v>
       </c>
       <c r="G85" s="27">
@@ -17657,7 +17676,7 @@
       <c r="O85" s="27">
         <v>1.1000000000000001</v>
       </c>
-      <c r="P85" s="34">
+      <c r="P85" s="33">
         <v>95.831999999999994</v>
       </c>
       <c r="Q85" s="27"/>
@@ -17681,7 +17700,7 @@
       <c r="E86" s="27">
         <v>2023</v>
       </c>
-      <c r="F86" s="28" t="s">
+      <c r="F86" s="38" t="s">
         <v>277</v>
       </c>
       <c r="G86" s="27">
@@ -17711,7 +17730,7 @@
       <c r="O86" s="27">
         <v>2.7</v>
       </c>
-      <c r="P86" s="34">
+      <c r="P86" s="33">
         <v>84.37</v>
       </c>
       <c r="Q86" s="27"/>
@@ -17735,7 +17754,7 @@
       <c r="E87" s="27">
         <v>2023</v>
       </c>
-      <c r="F87" s="28" t="s">
+      <c r="F87" s="38" t="s">
         <v>277</v>
       </c>
       <c r="G87" s="27">
@@ -17765,7 +17784,7 @@
       <c r="O87" s="27">
         <v>2</v>
       </c>
-      <c r="P87" s="34">
+      <c r="P87" s="33">
         <v>93.748000000000005</v>
       </c>
       <c r="Q87" s="27"/>
@@ -17789,7 +17808,7 @@
       <c r="E88" s="27">
         <v>2023</v>
       </c>
-      <c r="F88" s="28" t="s">
+      <c r="F88" s="38" t="s">
         <v>277</v>
       </c>
       <c r="G88" s="27">
@@ -17819,7 +17838,7 @@
       <c r="O88" s="27">
         <v>1</v>
       </c>
-      <c r="P88" s="34">
+      <c r="P88" s="33">
         <v>45.815999999999995</v>
       </c>
       <c r="Q88" s="27"/>
@@ -17843,7 +17862,7 @@
       <c r="E89" s="27">
         <v>2023</v>
       </c>
-      <c r="F89" s="28" t="s">
+      <c r="F89" s="38" t="s">
         <v>277</v>
       </c>
       <c r="G89" s="27">
@@ -17873,7 +17892,7 @@
       <c r="O89" s="27">
         <v>1</v>
       </c>
-      <c r="P89" s="34">
+      <c r="P89" s="33">
         <v>93.748000000000005</v>
       </c>
       <c r="Q89" s="27"/>
@@ -17897,7 +17916,7 @@
       <c r="E90" s="27">
         <v>2023</v>
       </c>
-      <c r="F90" s="28" t="s">
+      <c r="F90" s="38" t="s">
         <v>277</v>
       </c>
       <c r="G90" s="27">
@@ -17927,7 +17946,7 @@
       <c r="O90" s="27">
         <v>1</v>
       </c>
-      <c r="P90" s="34">
+      <c r="P90" s="33">
         <v>87.495999999999995</v>
       </c>
       <c r="Q90" s="27"/>
@@ -17951,7 +17970,7 @@
       <c r="E91" s="27">
         <v>2023</v>
       </c>
-      <c r="F91" s="28" t="s">
+      <c r="F91" s="38" t="s">
         <v>277</v>
       </c>
       <c r="G91" s="27">
@@ -17981,7 +18000,7 @@
       <c r="O91" s="27">
         <v>1</v>
       </c>
-      <c r="P91" s="34">
+      <c r="P91" s="33">
         <v>94.79</v>
       </c>
       <c r="Q91" s="27"/>
@@ -18005,7 +18024,7 @@
       <c r="E92" s="27">
         <v>2023</v>
       </c>
-      <c r="F92" s="28" t="s">
+      <c r="F92" s="38" t="s">
         <v>277</v>
       </c>
       <c r="G92" s="27">
@@ -18035,7 +18054,7 @@
       <c r="O92" s="27">
         <v>1</v>
       </c>
-      <c r="P92" s="34">
+      <c r="P92" s="33">
         <v>92.706000000000003</v>
       </c>
       <c r="Q92" s="27"/>
@@ -18059,7 +18078,7 @@
       <c r="E93" s="27">
         <v>2023</v>
       </c>
-      <c r="F93" s="27" t="s">
+      <c r="F93" s="37" t="s">
         <v>276</v>
       </c>
       <c r="G93" s="27">
@@ -18089,7 +18108,7 @@
       <c r="O93" s="27">
         <v>1.8</v>
       </c>
-      <c r="P93" s="34">
+      <c r="P93" s="33">
         <v>93.748000000000005</v>
       </c>
       <c r="Q93" s="27"/>
@@ -18113,7 +18132,7 @@
       <c r="E94" s="27">
         <v>2023</v>
       </c>
-      <c r="F94" s="27" t="s">
+      <c r="F94" s="37" t="s">
         <v>276</v>
       </c>
       <c r="G94" s="27">
@@ -18143,7 +18162,7 @@
       <c r="O94" s="27">
         <v>1</v>
       </c>
-      <c r="P94" s="34">
+      <c r="P94" s="33">
         <v>0</v>
       </c>
       <c r="Q94" s="27"/>
@@ -18167,7 +18186,7 @@
       <c r="E95" s="27">
         <v>2023</v>
       </c>
-      <c r="F95" s="27" t="s">
+      <c r="F95" s="37" t="s">
         <v>276</v>
       </c>
       <c r="G95" s="27">
@@ -18197,7 +18216,7 @@
       <c r="O95" s="27">
         <v>1</v>
       </c>
-      <c r="P95" s="34">
+      <c r="P95" s="33">
         <v>94.79</v>
       </c>
       <c r="Q95" s="27"/>
@@ -18221,7 +18240,7 @@
       <c r="E96" s="27">
         <v>2023</v>
       </c>
-      <c r="F96" s="27" t="s">
+      <c r="F96" s="37" t="s">
         <v>276</v>
       </c>
       <c r="G96" s="27">
@@ -18251,7 +18270,7 @@
       <c r="O96" s="27">
         <v>1</v>
       </c>
-      <c r="P96" s="34">
+      <c r="P96" s="33">
         <v>26.018000000000001</v>
       </c>
       <c r="Q96" s="27"/>
@@ -18275,7 +18294,7 @@
       <c r="E97" s="27">
         <v>2023</v>
       </c>
-      <c r="F97" s="27" t="s">
+      <c r="F97" s="37" t="s">
         <v>276</v>
       </c>
       <c r="G97" s="27">
@@ -18305,7 +18324,7 @@
       <c r="O97" s="27">
         <v>1</v>
       </c>
-      <c r="P97" s="34">
+      <c r="P97" s="33">
         <v>0</v>
       </c>
       <c r="Q97" s="27"/>
@@ -18329,7 +18348,7 @@
       <c r="E98" s="27">
         <v>2023</v>
       </c>
-      <c r="F98" s="27" t="s">
+      <c r="F98" s="37" t="s">
         <v>276</v>
       </c>
       <c r="G98" s="27">
@@ -18359,7 +18378,7 @@
       <c r="O98" s="27">
         <v>1</v>
       </c>
-      <c r="P98" s="34">
+      <c r="P98" s="33">
         <v>28.102000000000004</v>
       </c>
       <c r="Q98" s="27"/>
@@ -18383,7 +18402,7 @@
       <c r="E99" s="27">
         <v>2023</v>
       </c>
-      <c r="F99" s="27" t="s">
+      <c r="F99" s="37" t="s">
         <v>276</v>
       </c>
       <c r="G99" s="27">
@@ -18413,7 +18432,7 @@
       <c r="O99" s="27">
         <v>1</v>
       </c>
-      <c r="P99" s="34">
+      <c r="P99" s="33">
         <v>0</v>
       </c>
       <c r="Q99" s="27"/>
@@ -18437,7 +18456,7 @@
       <c r="E100" s="27">
         <v>2023</v>
       </c>
-      <c r="F100" s="27" t="s">
+      <c r="F100" s="37" t="s">
         <v>276</v>
       </c>
       <c r="G100" s="27">
@@ -18467,7 +18486,7 @@
       <c r="O100" s="27">
         <v>1</v>
       </c>
-      <c r="P100" s="34">
+      <c r="P100" s="33">
         <v>91.664000000000001</v>
       </c>
       <c r="Q100" s="27"/>
@@ -18491,7 +18510,7 @@
       <c r="E101" s="27">
         <v>2023</v>
       </c>
-      <c r="F101" s="27" t="s">
+      <c r="F101" s="37" t="s">
         <v>276</v>
       </c>
       <c r="G101" s="27">
@@ -18521,7 +18540,7 @@
       <c r="O101" s="27">
         <v>1</v>
       </c>
-      <c r="P101" s="34">
+      <c r="P101" s="33">
         <v>81.244</v>
       </c>
       <c r="Q101" s="27"/>
@@ -18545,7 +18564,7 @@
       <c r="E102" s="27">
         <v>2023</v>
       </c>
-      <c r="F102" s="27" t="s">
+      <c r="F102" s="37" t="s">
         <v>276</v>
       </c>
       <c r="G102" s="27">
@@ -18575,7 +18594,7 @@
       <c r="O102" s="27">
         <v>1</v>
       </c>
-      <c r="P102" s="34">
+      <c r="P102" s="33">
         <v>17.682000000000002</v>
       </c>
       <c r="Q102" s="27"/>
@@ -18599,7 +18618,7 @@
       <c r="E103" s="27">
         <v>2023</v>
       </c>
-      <c r="F103" s="27" t="s">
+      <c r="F103" s="37" t="s">
         <v>274</v>
       </c>
       <c r="G103" s="27">
@@ -18629,7 +18648,7 @@
       <c r="O103" s="27">
         <v>1.5</v>
       </c>
-      <c r="P103" s="34">
+      <c r="P103" s="33">
         <v>80.201999999999998</v>
       </c>
       <c r="Q103" s="27"/>
@@ -18653,7 +18672,7 @@
       <c r="E104" s="27">
         <v>2023</v>
       </c>
-      <c r="F104" s="27" t="s">
+      <c r="F104" s="37" t="s">
         <v>274</v>
       </c>
       <c r="G104" s="27">
@@ -18683,7 +18702,7 @@
       <c r="O104" s="27">
         <v>1</v>
       </c>
-      <c r="P104" s="34">
+      <c r="P104" s="33">
         <v>81.244</v>
       </c>
       <c r="Q104" s="27"/>
@@ -18707,7 +18726,7 @@
       <c r="E105" s="27">
         <v>2023</v>
       </c>
-      <c r="F105" s="27" t="s">
+      <c r="F105" s="37" t="s">
         <v>274</v>
       </c>
       <c r="G105" s="27">
@@ -18737,7 +18756,7 @@
       <c r="O105" s="27">
         <v>1.1000000000000001</v>
       </c>
-      <c r="P105" s="34">
+      <c r="P105" s="33">
         <v>70.823999999999998</v>
       </c>
       <c r="Q105" s="27"/>
@@ -18761,7 +18780,7 @@
       <c r="E106" s="27">
         <v>2023</v>
       </c>
-      <c r="F106" s="27" t="s">
+      <c r="F106" s="37" t="s">
         <v>274</v>
       </c>
       <c r="G106" s="27">
@@ -18791,7 +18810,7 @@
       <c r="O106" s="27">
         <v>1.3</v>
       </c>
-      <c r="P106" s="34">
+      <c r="P106" s="33">
         <v>96.873999999999995</v>
       </c>
       <c r="Q106" s="27"/>
@@ -18815,7 +18834,7 @@
       <c r="E107" s="27">
         <v>2023</v>
       </c>
-      <c r="F107" s="27" t="s">
+      <c r="F107" s="37" t="s">
         <v>274</v>
       </c>
       <c r="G107" s="27">
@@ -18845,7 +18864,7 @@
       <c r="O107" s="27">
         <v>1.5</v>
       </c>
-      <c r="P107" s="34">
+      <c r="P107" s="33">
         <v>66.656000000000006</v>
       </c>
       <c r="Q107" s="27"/>
@@ -18869,7 +18888,7 @@
       <c r="E108" s="27">
         <v>2023</v>
       </c>
-      <c r="F108" s="27" t="s">
+      <c r="F108" s="37" t="s">
         <v>274</v>
       </c>
       <c r="G108" s="27">
@@ -18899,7 +18918,7 @@
       <c r="O108" s="27">
         <v>1</v>
       </c>
-      <c r="P108" s="34">
+      <c r="P108" s="33">
         <v>90.622</v>
       </c>
       <c r="Q108" s="27"/>
@@ -18923,7 +18942,7 @@
       <c r="E109" s="27">
         <v>2023</v>
       </c>
-      <c r="F109" s="27" t="s">
+      <c r="F109" s="37" t="s">
         <v>274</v>
       </c>
       <c r="G109" s="27">
@@ -18953,7 +18972,7 @@
       <c r="O109" s="27">
         <v>1.6</v>
       </c>
-      <c r="P109" s="34">
+      <c r="P109" s="33">
         <v>94.79</v>
       </c>
       <c r="Q109" s="27"/>
@@ -18977,7 +18996,7 @@
       <c r="E110" s="27">
         <v>2023</v>
       </c>
-      <c r="F110" s="27" t="s">
+      <c r="F110" s="37" t="s">
         <v>274</v>
       </c>
       <c r="G110" s="27">
@@ -19007,7 +19026,7 @@
       <c r="O110" s="27">
         <v>1.6</v>
       </c>
-      <c r="P110" s="34">
+      <c r="P110" s="33">
         <v>87.495999999999995</v>
       </c>
       <c r="Q110" s="27"/>
@@ -19031,7 +19050,7 @@
       <c r="E111" s="27">
         <v>2023</v>
       </c>
-      <c r="F111" s="27" t="s">
+      <c r="F111" s="37" t="s">
         <v>274</v>
       </c>
       <c r="G111" s="27">
@@ -19061,7 +19080,7 @@
       <c r="O111" s="27">
         <v>2</v>
       </c>
-      <c r="P111" s="34">
+      <c r="P111" s="33">
         <v>97.915999999999997</v>
       </c>
       <c r="Q111" s="27"/>
@@ -19085,7 +19104,7 @@
       <c r="E112" s="27">
         <v>2023</v>
       </c>
-      <c r="F112" s="27" t="s">
+      <c r="F112" s="37" t="s">
         <v>274</v>
       </c>
       <c r="G112" s="27">
@@ -19115,7 +19134,7 @@
       <c r="O112" s="27">
         <v>2</v>
       </c>
-      <c r="P112" s="34">
+      <c r="P112" s="33">
         <v>41.647999999999996</v>
       </c>
       <c r="Q112" s="27"/>
@@ -19139,7 +19158,7 @@
       <c r="E113" s="27">
         <v>2023</v>
       </c>
-      <c r="F113" s="27" t="s">
+      <c r="F113" s="37" t="s">
         <v>278</v>
       </c>
       <c r="G113" s="27">
@@ -19169,7 +19188,7 @@
       <c r="O113" s="27">
         <v>3</v>
       </c>
-      <c r="P113" s="34">
+      <c r="P113" s="33">
         <v>90.622</v>
       </c>
       <c r="Q113" s="27"/>
@@ -19193,7 +19212,7 @@
       <c r="E114" s="27">
         <v>2023</v>
       </c>
-      <c r="F114" s="27" t="s">
+      <c r="F114" s="37" t="s">
         <v>278</v>
       </c>
       <c r="G114" s="27">
@@ -19223,7 +19242,7 @@
       <c r="O114" s="27">
         <v>2</v>
       </c>
-      <c r="P114" s="34">
+      <c r="P114" s="33">
         <v>91.664000000000001</v>
       </c>
       <c r="Q114" s="27"/>
@@ -19247,7 +19266,7 @@
       <c r="E115" s="27">
         <v>2023</v>
       </c>
-      <c r="F115" s="27" t="s">
+      <c r="F115" s="37" t="s">
         <v>278</v>
       </c>
       <c r="G115" s="27">
@@ -19277,7 +19296,7 @@
       <c r="O115" s="27">
         <v>1.5</v>
       </c>
-      <c r="P115" s="34">
+      <c r="P115" s="33">
         <v>89.58</v>
       </c>
       <c r="Q115" s="27"/>
@@ -19301,7 +19320,7 @@
       <c r="E116" s="27">
         <v>2023</v>
       </c>
-      <c r="F116" s="27" t="s">
+      <c r="F116" s="37" t="s">
         <v>278</v>
       </c>
       <c r="G116" s="27">
@@ -19331,7 +19350,7 @@
       <c r="O116" s="27">
         <v>2</v>
       </c>
-      <c r="P116" s="34">
+      <c r="P116" s="33">
         <v>80.201999999999998</v>
       </c>
       <c r="Q116" s="27"/>
@@ -19355,7 +19374,7 @@
       <c r="E117" s="27">
         <v>2023</v>
       </c>
-      <c r="F117" s="27" t="s">
+      <c r="F117" s="37" t="s">
         <v>278</v>
       </c>
       <c r="G117" s="27">
@@ -19385,7 +19404,7 @@
       <c r="O117" s="27">
         <v>1.5</v>
       </c>
-      <c r="P117" s="34">
+      <c r="P117" s="33">
         <v>81.244</v>
       </c>
       <c r="Q117" s="27"/>
@@ -19409,7 +19428,7 @@
       <c r="E118" s="27">
         <v>2023</v>
       </c>
-      <c r="F118" s="27" t="s">
+      <c r="F118" s="37" t="s">
         <v>278</v>
       </c>
       <c r="G118" s="27">
@@ -19439,7 +19458,7 @@
       <c r="O118" s="27">
         <v>2</v>
       </c>
-      <c r="P118" s="34">
+      <c r="P118" s="33">
         <v>47.483199999999997</v>
       </c>
       <c r="Q118" s="27"/>
@@ -19463,7 +19482,7 @@
       <c r="E119" s="27">
         <v>2023</v>
       </c>
-      <c r="F119" s="27" t="s">
+      <c r="F119" s="37" t="s">
         <v>278</v>
       </c>
       <c r="G119" s="27">
@@ -19493,7 +19512,7 @@
       <c r="O119" s="27">
         <v>1.3</v>
       </c>
-      <c r="P119" s="34">
+      <c r="P119" s="33">
         <v>76.659199999999998</v>
       </c>
       <c r="Q119" s="27"/>
@@ -19517,7 +19536,7 @@
       <c r="E120" s="27">
         <v>2023</v>
       </c>
-      <c r="F120" s="27" t="s">
+      <c r="F120" s="37" t="s">
         <v>278</v>
       </c>
       <c r="G120" s="27">
@@ -19547,7 +19566,7 @@
       <c r="O120" s="27">
         <v>3.3</v>
       </c>
-      <c r="P120" s="34">
+      <c r="P120" s="33">
         <v>79.16</v>
       </c>
       <c r="Q120" s="27"/>
@@ -19571,7 +19590,7 @@
       <c r="E121" s="27">
         <v>2023</v>
       </c>
-      <c r="F121" s="27" t="s">
+      <c r="F121" s="37" t="s">
         <v>278</v>
       </c>
       <c r="G121" s="27">
@@ -19601,7 +19620,7 @@
       <c r="O121" s="27">
         <v>1</v>
       </c>
-      <c r="P121" s="34">
+      <c r="P121" s="33">
         <v>52.067999999999998</v>
       </c>
       <c r="Q121" s="27"/>
@@ -19625,7 +19644,7 @@
       <c r="E122" s="27">
         <v>2023</v>
       </c>
-      <c r="F122" s="27" t="s">
+      <c r="F122" s="37" t="s">
         <v>278</v>
       </c>
       <c r="G122" s="27">
@@ -19655,7 +19674,7 @@
       <c r="O122" s="27">
         <v>2</v>
       </c>
-      <c r="P122" s="34">
+      <c r="P122" s="33">
         <v>61.445999999999998</v>
       </c>
       <c r="Q122" s="27"/>
@@ -19679,7 +19698,7 @@
       <c r="E123" s="27">
         <v>2023</v>
       </c>
-      <c r="F123" s="27" t="s">
+      <c r="F123" s="37" t="s">
         <v>279</v>
       </c>
       <c r="G123" s="27">
@@ -19705,7 +19724,7 @@
       </c>
       <c r="N123" s="27"/>
       <c r="O123" s="27"/>
-      <c r="P123" s="34"/>
+      <c r="P123" s="33"/>
       <c r="Q123" s="27"/>
       <c r="R123" s="27"/>
       <c r="S123" s="27"/>
@@ -19727,7 +19746,7 @@
       <c r="E124" s="27">
         <v>2023</v>
       </c>
-      <c r="F124" s="27" t="s">
+      <c r="F124" s="37" t="s">
         <v>279</v>
       </c>
       <c r="G124" s="27">
@@ -19753,7 +19772,7 @@
       </c>
       <c r="N124" s="27"/>
       <c r="O124" s="27"/>
-      <c r="P124" s="34"/>
+      <c r="P124" s="33"/>
       <c r="Q124" s="27"/>
       <c r="R124" s="27"/>
       <c r="S124" s="27"/>
@@ -19775,7 +19794,7 @@
       <c r="E125" s="27">
         <v>2023</v>
       </c>
-      <c r="F125" s="27" t="s">
+      <c r="F125" s="37" t="s">
         <v>279</v>
       </c>
       <c r="G125" s="27">
@@ -19801,7 +19820,7 @@
       </c>
       <c r="N125" s="27"/>
       <c r="O125" s="27"/>
-      <c r="P125" s="34"/>
+      <c r="P125" s="33"/>
       <c r="Q125" s="27"/>
       <c r="R125" s="27"/>
       <c r="S125" s="27"/>
@@ -19823,7 +19842,7 @@
       <c r="E126" s="27">
         <v>2023</v>
       </c>
-      <c r="F126" s="27" t="s">
+      <c r="F126" s="37" t="s">
         <v>279</v>
       </c>
       <c r="G126" s="27">
@@ -19849,7 +19868,7 @@
       </c>
       <c r="N126" s="27"/>
       <c r="O126" s="27"/>
-      <c r="P126" s="34"/>
+      <c r="P126" s="33"/>
       <c r="Q126" s="27"/>
       <c r="R126" s="27"/>
       <c r="S126" s="27"/>
@@ -19871,7 +19890,7 @@
       <c r="E127" s="27">
         <v>2023</v>
       </c>
-      <c r="F127" s="27" t="s">
+      <c r="F127" s="37" t="s">
         <v>279</v>
       </c>
       <c r="G127" s="27">
@@ -19897,7 +19916,7 @@
       </c>
       <c r="N127" s="27"/>
       <c r="O127" s="27"/>
-      <c r="P127" s="34"/>
+      <c r="P127" s="33"/>
       <c r="Q127" s="27"/>
       <c r="R127" s="27"/>
       <c r="S127" s="27"/>
@@ -19919,7 +19938,7 @@
       <c r="E128" s="27">
         <v>2023</v>
       </c>
-      <c r="F128" s="27" t="s">
+      <c r="F128" s="37" t="s">
         <v>279</v>
       </c>
       <c r="G128" s="27">
@@ -19949,7 +19968,7 @@
       <c r="O128" s="27">
         <v>1</v>
       </c>
-      <c r="P128" s="34">
+      <c r="P128" s="33">
         <v>100</v>
       </c>
       <c r="Q128" s="27"/>
@@ -19973,7 +19992,7 @@
       <c r="E129" s="27">
         <v>2023</v>
       </c>
-      <c r="F129" s="27" t="s">
+      <c r="F129" s="37" t="s">
         <v>279</v>
       </c>
       <c r="G129" s="27">
@@ -20003,7 +20022,7 @@
       <c r="O129" s="27">
         <v>1</v>
       </c>
-      <c r="P129" s="34">
+      <c r="P129" s="33">
         <v>100</v>
       </c>
       <c r="Q129" s="27"/>
@@ -20027,7 +20046,7 @@
       <c r="E130" s="27">
         <v>2023</v>
       </c>
-      <c r="F130" s="27" t="s">
+      <c r="F130" s="37" t="s">
         <v>279</v>
       </c>
       <c r="G130" s="27">
@@ -20057,7 +20076,7 @@
       <c r="O130" s="27">
         <v>1</v>
       </c>
-      <c r="P130" s="34">
+      <c r="P130" s="33">
         <v>98.957999999999998</v>
       </c>
       <c r="Q130" s="27"/>
@@ -20081,7 +20100,7 @@
       <c r="E131" s="27">
         <v>2023</v>
       </c>
-      <c r="F131" s="27" t="s">
+      <c r="F131" s="37" t="s">
         <v>279</v>
       </c>
       <c r="G131" s="27">
@@ -20111,7 +20130,7 @@
       <c r="O131" s="27">
         <v>1</v>
       </c>
-      <c r="P131" s="34">
+      <c r="P131" s="33">
         <v>80.201999999999998</v>
       </c>
       <c r="Q131" s="27"/>
@@ -20135,7 +20154,7 @@
       <c r="E132" s="27">
         <v>2023</v>
       </c>
-      <c r="F132" s="27" t="s">
+      <c r="F132" s="37" t="s">
         <v>279</v>
       </c>
       <c r="G132" s="27">
@@ -20165,7 +20184,7 @@
       <c r="O132" s="27">
         <v>1</v>
       </c>
-      <c r="P132" s="34">
+      <c r="P132" s="33">
         <v>85.412000000000006</v>
       </c>
       <c r="Q132" s="27"/>
@@ -20189,7 +20208,7 @@
       <c r="E133" s="27">
         <v>2023</v>
       </c>
-      <c r="F133" s="27" t="s">
+      <c r="F133" s="37" t="s">
         <v>279</v>
       </c>
       <c r="G133" s="27">
@@ -20215,7 +20234,7 @@
       </c>
       <c r="N133" s="27"/>
       <c r="O133" s="27"/>
-      <c r="P133" s="34" t="s">
+      <c r="P133" s="33" t="s">
         <v>387</v>
       </c>
       <c r="Q133" s="27"/>
@@ -20239,7 +20258,7 @@
       <c r="E134" s="27">
         <v>2023</v>
       </c>
-      <c r="F134" s="27" t="s">
+      <c r="F134" s="37" t="s">
         <v>279</v>
       </c>
       <c r="G134" s="27">
@@ -20265,7 +20284,7 @@
       </c>
       <c r="N134" s="27"/>
       <c r="O134" s="27"/>
-      <c r="P134" s="34" t="s">
+      <c r="P134" s="33" t="s">
         <v>387</v>
       </c>
       <c r="Q134" s="27"/>
@@ -20289,7 +20308,7 @@
       <c r="E135" s="27">
         <v>2023</v>
       </c>
-      <c r="F135" s="27" t="s">
+      <c r="F135" s="37" t="s">
         <v>279</v>
       </c>
       <c r="G135" s="27">
@@ -20315,7 +20334,7 @@
       </c>
       <c r="N135" s="27"/>
       <c r="O135" s="27"/>
-      <c r="P135" s="34" t="s">
+      <c r="P135" s="33" t="s">
         <v>387</v>
       </c>
       <c r="Q135" s="27"/>
@@ -20339,7 +20358,7 @@
       <c r="E136" s="27">
         <v>2023</v>
       </c>
-      <c r="F136" s="27" t="s">
+      <c r="F136" s="37" t="s">
         <v>279</v>
       </c>
       <c r="G136" s="27">
@@ -20365,7 +20384,7 @@
       </c>
       <c r="N136" s="27"/>
       <c r="O136" s="27"/>
-      <c r="P136" s="34" t="s">
+      <c r="P136" s="33" t="s">
         <v>387</v>
       </c>
       <c r="Q136" s="27"/>
@@ -20389,7 +20408,7 @@
       <c r="E137" s="27">
         <v>2023</v>
       </c>
-      <c r="F137" s="27" t="s">
+      <c r="F137" s="37" t="s">
         <v>279</v>
       </c>
       <c r="G137" s="27">
@@ -20415,7 +20434,7 @@
       </c>
       <c r="N137" s="27"/>
       <c r="O137" s="27"/>
-      <c r="P137" s="34" t="s">
+      <c r="P137" s="33" t="s">
         <v>387</v>
       </c>
       <c r="Q137" s="27"/>
@@ -20439,7 +20458,7 @@
       <c r="E138" s="27">
         <v>2023</v>
       </c>
-      <c r="F138" s="27" t="s">
+      <c r="F138" s="37" t="s">
         <v>279</v>
       </c>
       <c r="G138" s="27">
@@ -20469,7 +20488,7 @@
       <c r="O138" s="27">
         <v>1.6</v>
       </c>
-      <c r="P138" s="34">
+      <c r="P138" s="33">
         <v>84.37</v>
       </c>
       <c r="Q138" s="27"/>
@@ -20493,7 +20512,7 @@
       <c r="E139" s="27">
         <v>2023</v>
       </c>
-      <c r="F139" s="27" t="s">
+      <c r="F139" s="37" t="s">
         <v>279</v>
       </c>
       <c r="G139" s="27">
@@ -20523,7 +20542,7 @@
       <c r="O139" s="27">
         <v>1</v>
       </c>
-      <c r="P139" s="34">
+      <c r="P139" s="33">
         <v>47.9</v>
       </c>
       <c r="Q139" s="27"/>
@@ -20547,7 +20566,7 @@
       <c r="E140" s="27">
         <v>2023</v>
       </c>
-      <c r="F140" s="27" t="s">
+      <c r="F140" s="37" t="s">
         <v>279</v>
       </c>
       <c r="G140" s="27">
@@ -20577,7 +20596,7 @@
       <c r="O140" s="27">
         <v>1</v>
       </c>
-      <c r="P140" s="34">
+      <c r="P140" s="33">
         <v>85.412000000000006</v>
       </c>
       <c r="Q140" s="27"/>
@@ -20601,7 +20620,7 @@
       <c r="E141" s="27">
         <v>2023</v>
       </c>
-      <c r="F141" s="27" t="s">
+      <c r="F141" s="37" t="s">
         <v>279</v>
       </c>
       <c r="G141" s="27">
@@ -20631,7 +20650,7 @@
       <c r="O141" s="27">
         <v>1</v>
       </c>
-      <c r="P141" s="34">
+      <c r="P141" s="33">
         <v>95.831999999999994</v>
       </c>
       <c r="Q141" s="27"/>
@@ -20655,7 +20674,7 @@
       <c r="E142" s="27">
         <v>2023</v>
       </c>
-      <c r="F142" s="27" t="s">
+      <c r="F142" s="37" t="s">
         <v>279</v>
       </c>
       <c r="G142" s="27">
@@ -20685,7 +20704,7 @@
       <c r="O142" s="27">
         <v>2</v>
       </c>
-      <c r="P142" s="34">
+      <c r="P142" s="33">
         <v>93.748000000000005</v>
       </c>
       <c r="Q142" s="27"/>
@@ -20709,7 +20728,7 @@
       <c r="E143" s="27">
         <v>2023</v>
       </c>
-      <c r="F143" s="27" t="s">
+      <c r="F143" s="37" t="s">
         <v>281</v>
       </c>
       <c r="G143" s="27">
@@ -20739,7 +20758,7 @@
       <c r="O143" s="27">
         <v>2</v>
       </c>
-      <c r="P143" s="34">
+      <c r="P143" s="33">
         <v>97.915999999999997</v>
       </c>
       <c r="Q143" s="27"/>
@@ -20763,7 +20782,7 @@
       <c r="E144" s="27">
         <v>2023</v>
       </c>
-      <c r="F144" s="27" t="s">
+      <c r="F144" s="37" t="s">
         <v>281</v>
       </c>
       <c r="G144" s="27">
@@ -20793,7 +20812,7 @@
       <c r="O144" s="27">
         <v>1</v>
       </c>
-      <c r="P144" s="34">
+      <c r="P144" s="33">
         <v>91.664000000000001</v>
       </c>
       <c r="Q144" s="27"/>
@@ -20817,7 +20836,7 @@
       <c r="E145" s="27">
         <v>2023</v>
       </c>
-      <c r="F145" s="27" t="s">
+      <c r="F145" s="37" t="s">
         <v>281</v>
       </c>
       <c r="G145" s="27">
@@ -20847,7 +20866,7 @@
       <c r="O145" s="27">
         <v>2.5</v>
       </c>
-      <c r="P145" s="34">
+      <c r="P145" s="33">
         <v>97.915999999999997</v>
       </c>
       <c r="Q145" s="27"/>
@@ -20871,7 +20890,7 @@
       <c r="E146" s="27">
         <v>2023</v>
       </c>
-      <c r="F146" s="27" t="s">
+      <c r="F146" s="37" t="s">
         <v>281</v>
       </c>
       <c r="G146" s="27">
@@ -20901,7 +20920,7 @@
       <c r="O146" s="27">
         <v>2.2000000000000002</v>
       </c>
-      <c r="P146" s="34">
+      <c r="P146" s="33">
         <v>89.58</v>
       </c>
       <c r="Q146" s="27"/>
@@ -20925,7 +20944,7 @@
       <c r="E147" s="27">
         <v>2023</v>
       </c>
-      <c r="F147" s="27" t="s">
+      <c r="F147" s="37" t="s">
         <v>281</v>
       </c>
       <c r="G147" s="27">
@@ -20955,7 +20974,7 @@
       <c r="O147" s="27">
         <v>2</v>
       </c>
-      <c r="P147" s="34">
+      <c r="P147" s="33">
         <v>83.328000000000003</v>
       </c>
       <c r="Q147" s="27"/>
@@ -20979,7 +20998,7 @@
       <c r="E148" s="27">
         <v>2023</v>
       </c>
-      <c r="F148" s="27" t="s">
+      <c r="F148" s="37" t="s">
         <v>281</v>
       </c>
       <c r="G148" s="27">
@@ -21009,7 +21028,7 @@
       <c r="O148" s="27">
         <v>1</v>
       </c>
-      <c r="P148" s="34">
+      <c r="P148" s="33">
         <v>78.117999999999995</v>
       </c>
       <c r="Q148" s="27"/>
@@ -21033,7 +21052,7 @@
       <c r="E149" s="27">
         <v>2023</v>
       </c>
-      <c r="F149" s="27" t="s">
+      <c r="F149" s="37" t="s">
         <v>281</v>
       </c>
       <c r="G149" s="27">
@@ -21063,7 +21082,7 @@
       <c r="O149" s="27">
         <v>1</v>
       </c>
-      <c r="P149" s="34">
+      <c r="P149" s="33">
         <v>100</v>
       </c>
       <c r="Q149" s="27"/>
@@ -21087,7 +21106,7 @@
       <c r="E150" s="27">
         <v>2023</v>
       </c>
-      <c r="F150" s="27" t="s">
+      <c r="F150" s="37" t="s">
         <v>281</v>
       </c>
       <c r="G150" s="27">
@@ -21117,7 +21136,7 @@
       <c r="O150" s="27">
         <v>1</v>
       </c>
-      <c r="P150" s="34">
+      <c r="P150" s="33">
         <v>100</v>
       </c>
       <c r="Q150" s="27"/>
@@ -21141,7 +21160,7 @@
       <c r="E151" s="27">
         <v>2023</v>
       </c>
-      <c r="F151" s="27" t="s">
+      <c r="F151" s="37" t="s">
         <v>281</v>
       </c>
       <c r="G151" s="27">
@@ -21171,7 +21190,7 @@
       <c r="O151" s="27">
         <v>1.6</v>
       </c>
-      <c r="P151" s="34">
+      <c r="P151" s="33">
         <v>97.915999999999997</v>
       </c>
       <c r="Q151" s="27"/>
@@ -21195,7 +21214,7 @@
       <c r="E152" s="27">
         <v>2023</v>
       </c>
-      <c r="F152" s="27" t="s">
+      <c r="F152" s="37" t="s">
         <v>281</v>
       </c>
       <c r="G152" s="27">
@@ -21225,7 +21244,7 @@
       <c r="O152" s="27">
         <v>2.2999999999999998</v>
       </c>
-      <c r="P152" s="34">
+      <c r="P152" s="33">
         <v>98.957999999999998</v>
       </c>
       <c r="Q152" s="27"/>
@@ -21249,7 +21268,7 @@
       <c r="E153" s="27">
         <v>2023</v>
       </c>
-      <c r="F153" s="28" t="s">
+      <c r="F153" s="38" t="s">
         <v>282</v>
       </c>
       <c r="G153" s="27">
@@ -21279,7 +21298,7 @@
       <c r="O153" s="27">
         <v>5.5</v>
       </c>
-      <c r="P153" s="34">
+      <c r="P153" s="33">
         <v>29.143999999999991</v>
       </c>
       <c r="Q153" s="27"/>
@@ -21303,7 +21322,7 @@
       <c r="E154" s="27">
         <v>2023</v>
       </c>
-      <c r="F154" s="28" t="s">
+      <c r="F154" s="38" t="s">
         <v>282</v>
       </c>
       <c r="G154" s="27">
@@ -21333,7 +21352,7 @@
       <c r="O154" s="27">
         <v>4.2</v>
       </c>
-      <c r="P154" s="34">
+      <c r="P154" s="33">
         <v>66.656000000000006</v>
       </c>
       <c r="Q154" s="27"/>
@@ -21357,7 +21376,7 @@
       <c r="E155" s="27">
         <v>2023</v>
       </c>
-      <c r="F155" s="28" t="s">
+      <c r="F155" s="38" t="s">
         <v>282</v>
       </c>
       <c r="G155" s="27">
@@ -21387,7 +21406,7 @@
       <c r="O155" s="27">
         <v>3.5</v>
       </c>
-      <c r="P155" s="34">
+      <c r="P155" s="33">
         <v>24.975999999999999</v>
       </c>
       <c r="Q155" s="27"/>
@@ -21411,7 +21430,7 @@
       <c r="E156" s="27">
         <v>2023</v>
       </c>
-      <c r="F156" s="28" t="s">
+      <c r="F156" s="38" t="s">
         <v>282</v>
       </c>
       <c r="G156" s="27">
@@ -21441,7 +21460,7 @@
       <c r="O156" s="27">
         <v>4</v>
       </c>
-      <c r="P156" s="34">
+      <c r="P156" s="33">
         <v>84.37</v>
       </c>
       <c r="Q156" s="27"/>
@@ -21465,7 +21484,7 @@
       <c r="E157" s="27">
         <v>2023</v>
       </c>
-      <c r="F157" s="28" t="s">
+      <c r="F157" s="38" t="s">
         <v>282</v>
       </c>
       <c r="G157" s="27">
@@ -21495,7 +21514,7 @@
       <c r="O157" s="27">
         <v>3</v>
       </c>
-      <c r="P157" s="34">
+      <c r="P157" s="33">
         <v>86.453999999999994</v>
       </c>
       <c r="Q157" s="27"/>
@@ -21519,7 +21538,7 @@
       <c r="E158" s="27">
         <v>2023</v>
       </c>
-      <c r="F158" s="28" t="s">
+      <c r="F158" s="38" t="s">
         <v>282</v>
       </c>
       <c r="G158" s="27">
@@ -21549,7 +21568,7 @@
       <c r="O158" s="27">
         <v>7</v>
       </c>
-      <c r="P158" s="34">
+      <c r="P158" s="33">
         <v>31.227999999999994</v>
       </c>
       <c r="Q158" s="27"/>
@@ -21573,7 +21592,7 @@
       <c r="E159" s="27">
         <v>2023</v>
       </c>
-      <c r="F159" s="28" t="s">
+      <c r="F159" s="38" t="s">
         <v>282</v>
       </c>
       <c r="G159" s="27">
@@ -21603,7 +21622,7 @@
       <c r="O159" s="27">
         <v>3.6</v>
       </c>
-      <c r="P159" s="34">
+      <c r="P159" s="33">
         <v>94.79</v>
       </c>
       <c r="Q159" s="27"/>
@@ -21627,7 +21646,7 @@
       <c r="E160" s="27">
         <v>2023</v>
       </c>
-      <c r="F160" s="28" t="s">
+      <c r="F160" s="38" t="s">
         <v>282</v>
       </c>
       <c r="G160" s="27">
@@ -21657,7 +21676,7 @@
       <c r="O160" s="27">
         <v>7.6</v>
       </c>
-      <c r="P160" s="34">
+      <c r="P160" s="33">
         <v>100</v>
       </c>
       <c r="Q160" s="27"/>
@@ -21681,7 +21700,7 @@
       <c r="E161" s="27">
         <v>2023</v>
       </c>
-      <c r="F161" s="28" t="s">
+      <c r="F161" s="38" t="s">
         <v>282</v>
       </c>
       <c r="G161" s="27">
@@ -21711,7 +21730,7 @@
       <c r="O161" s="27">
         <v>3</v>
       </c>
-      <c r="P161" s="34">
+      <c r="P161" s="33">
         <v>95.831999999999994</v>
       </c>
       <c r="Q161" s="27"/>
@@ -21735,7 +21754,7 @@
       <c r="E162" s="27">
         <v>2023</v>
       </c>
-      <c r="F162" s="28" t="s">
+      <c r="F162" s="38" t="s">
         <v>282</v>
       </c>
       <c r="G162" s="27">
@@ -21765,7 +21784,7 @@
       <c r="O162" s="27">
         <v>3.3</v>
       </c>
-      <c r="P162" s="34">
+      <c r="P162" s="33">
         <v>77.075999999999993</v>
       </c>
       <c r="Q162" s="27"/>
@@ -21789,7 +21808,7 @@
       <c r="E163" s="27">
         <v>2023</v>
       </c>
-      <c r="F163" s="28" t="s">
+      <c r="F163" s="38" t="s">
         <v>283</v>
       </c>
       <c r="G163" s="27">
@@ -21819,7 +21838,7 @@
       <c r="O163" s="27">
         <v>4.5999999999999996</v>
       </c>
-      <c r="P163" s="34">
+      <c r="P163" s="33">
         <v>54.152000000000001</v>
       </c>
       <c r="Q163" s="27"/>
@@ -21843,7 +21862,7 @@
       <c r="E164" s="27">
         <v>2023</v>
       </c>
-      <c r="F164" s="28" t="s">
+      <c r="F164" s="38" t="s">
         <v>283</v>
       </c>
       <c r="G164" s="27">
@@ -21873,7 +21892,7 @@
       <c r="O164" s="27">
         <v>2.5</v>
       </c>
-      <c r="P164" s="34">
+      <c r="P164" s="33">
         <v>90.622</v>
       </c>
       <c r="Q164" s="27"/>
@@ -21897,7 +21916,7 @@
       <c r="E165" s="27">
         <v>2023</v>
       </c>
-      <c r="F165" s="28" t="s">
+      <c r="F165" s="38" t="s">
         <v>283</v>
       </c>
       <c r="G165" s="27">
@@ -21927,7 +21946,7 @@
       <c r="O165" s="27">
         <v>5.0999999999999996</v>
       </c>
-      <c r="P165" s="34">
+      <c r="P165" s="33">
         <v>95.831999999999994</v>
       </c>
       <c r="Q165" s="27"/>
@@ -21951,7 +21970,7 @@
       <c r="E166" s="27">
         <v>2023</v>
       </c>
-      <c r="F166" s="28" t="s">
+      <c r="F166" s="38" t="s">
         <v>283</v>
       </c>
       <c r="G166" s="27">
@@ -21981,7 +22000,7 @@
       <c r="O166" s="27">
         <v>1.1000000000000001</v>
       </c>
-      <c r="P166" s="34">
+      <c r="P166" s="33">
         <v>96.873999999999995</v>
       </c>
       <c r="Q166" s="27"/>
@@ -22005,7 +22024,7 @@
       <c r="E167" s="27">
         <v>2023</v>
       </c>
-      <c r="F167" s="28" t="s">
+      <c r="F167" s="38" t="s">
         <v>283</v>
       </c>
       <c r="G167" s="27">
@@ -22035,7 +22054,7 @@
       <c r="O167" s="27">
         <v>4</v>
       </c>
-      <c r="P167" s="34">
+      <c r="P167" s="33">
         <v>93.748000000000005</v>
       </c>
       <c r="Q167" s="27"/>
@@ -22059,7 +22078,7 @@
       <c r="E168" s="27">
         <v>2023</v>
       </c>
-      <c r="F168" s="28" t="s">
+      <c r="F168" s="38" t="s">
         <v>283</v>
       </c>
       <c r="G168" s="27">
@@ -22089,7 +22108,7 @@
       <c r="O168" s="27">
         <v>3</v>
       </c>
-      <c r="P168" s="34">
+      <c r="P168" s="33">
         <v>90.622</v>
       </c>
       <c r="Q168" s="27"/>
@@ -22113,7 +22132,7 @@
       <c r="E169" s="27">
         <v>2023</v>
       </c>
-      <c r="F169" s="28" t="s">
+      <c r="F169" s="38" t="s">
         <v>283</v>
       </c>
       <c r="G169" s="27">
@@ -22143,7 +22162,7 @@
       <c r="O169" s="27">
         <v>1</v>
       </c>
-      <c r="P169" s="34">
+      <c r="P169" s="33">
         <v>100</v>
       </c>
       <c r="Q169" s="27"/>
@@ -22167,7 +22186,7 @@
       <c r="E170" s="27">
         <v>2023</v>
       </c>
-      <c r="F170" s="28" t="s">
+      <c r="F170" s="38" t="s">
         <v>283</v>
       </c>
       <c r="G170" s="27">
@@ -22197,7 +22216,7 @@
       <c r="O170" s="27">
         <v>4.5999999999999996</v>
       </c>
-      <c r="P170" s="34">
+      <c r="P170" s="33">
         <v>94.79</v>
       </c>
       <c r="Q170" s="27"/>
@@ -22221,7 +22240,7 @@
       <c r="E171" s="27">
         <v>2023</v>
       </c>
-      <c r="F171" s="28" t="s">
+      <c r="F171" s="38" t="s">
         <v>283</v>
       </c>
       <c r="G171" s="27">
@@ -22251,7 +22270,7 @@
       <c r="O171" s="27">
         <v>1</v>
       </c>
-      <c r="P171" s="34">
+      <c r="P171" s="33">
         <v>90.622</v>
       </c>
       <c r="Q171" s="27"/>
@@ -22275,7 +22294,7 @@
       <c r="E172" s="27">
         <v>2023</v>
       </c>
-      <c r="F172" s="28" t="s">
+      <c r="F172" s="38" t="s">
         <v>283</v>
       </c>
       <c r="G172" s="27">
@@ -22305,7 +22324,7 @@
       <c r="O172" s="27">
         <v>3</v>
       </c>
-      <c r="P172" s="34">
+      <c r="P172" s="33">
         <v>92.706000000000003</v>
       </c>
       <c r="Q172" s="27"/>
@@ -22329,7 +22348,7 @@
       <c r="E173" s="27">
         <v>2023</v>
       </c>
-      <c r="F173" s="27" t="s">
+      <c r="F173" s="37" t="s">
         <v>284</v>
       </c>
       <c r="G173" s="27">
@@ -22359,7 +22378,7 @@
       <c r="O173" s="27">
         <v>7.2</v>
       </c>
-      <c r="P173" s="34">
+      <c r="P173" s="33">
         <v>45.815999999999995</v>
       </c>
       <c r="Q173" s="27"/>
@@ -22383,7 +22402,7 @@
       <c r="E174" s="27">
         <v>2023</v>
       </c>
-      <c r="F174" s="27" t="s">
+      <c r="F174" s="37" t="s">
         <v>284</v>
       </c>
       <c r="G174" s="27">
@@ -22413,7 +22432,7 @@
       <c r="O174" s="27">
         <v>7.3</v>
       </c>
-      <c r="P174" s="34">
+      <c r="P174" s="33">
         <v>96.873999999999995</v>
       </c>
       <c r="Q174" s="27"/>
@@ -22437,7 +22456,7 @@
       <c r="E175" s="27">
         <v>2023</v>
       </c>
-      <c r="F175" s="27" t="s">
+      <c r="F175" s="37" t="s">
         <v>284</v>
       </c>
       <c r="G175" s="27">
@@ -22467,7 +22486,7 @@
       <c r="O175" s="27">
         <v>1</v>
       </c>
-      <c r="P175" s="34">
+      <c r="P175" s="33">
         <v>79.16</v>
       </c>
       <c r="Q175" s="27"/>
@@ -22491,7 +22510,7 @@
       <c r="E176" s="27">
         <v>2023</v>
       </c>
-      <c r="F176" s="27" t="s">
+      <c r="F176" s="37" t="s">
         <v>284</v>
       </c>
       <c r="G176" s="27">
@@ -22521,7 +22540,7 @@
       <c r="O176" s="27">
         <v>9</v>
       </c>
-      <c r="P176" s="34">
+      <c r="P176" s="33">
         <v>95.831999999999994</v>
       </c>
       <c r="Q176" s="27"/>
@@ -22545,7 +22564,7 @@
       <c r="E177" s="27">
         <v>2023</v>
       </c>
-      <c r="F177" s="27" t="s">
+      <c r="F177" s="37" t="s">
         <v>284</v>
       </c>
       <c r="G177" s="27">
@@ -22575,7 +22594,7 @@
       <c r="O177" s="27">
         <v>6.2</v>
       </c>
-      <c r="P177" s="34">
+      <c r="P177" s="33">
         <v>95.831999999999994</v>
       </c>
       <c r="Q177" s="27"/>
@@ -22599,7 +22618,7 @@
       <c r="E178" s="27">
         <v>2023</v>
       </c>
-      <c r="F178" s="27" t="s">
+      <c r="F178" s="37" t="s">
         <v>284</v>
       </c>
       <c r="G178" s="27">
@@ -22629,7 +22648,7 @@
       <c r="O178" s="27">
         <v>4</v>
       </c>
-      <c r="P178" s="34">
+      <c r="P178" s="33">
         <v>81.244</v>
       </c>
       <c r="Q178" s="27"/>
@@ -22653,7 +22672,7 @@
       <c r="E179" s="27">
         <v>2023</v>
       </c>
-      <c r="F179" s="27" t="s">
+      <c r="F179" s="37" t="s">
         <v>284</v>
       </c>
       <c r="G179" s="27">
@@ -22683,7 +22702,7 @@
       <c r="O179" s="27">
         <v>5.3</v>
       </c>
-      <c r="P179" s="34">
+      <c r="P179" s="33">
         <v>95.831999999999994</v>
       </c>
       <c r="Q179" s="27"/>
@@ -22707,7 +22726,7 @@
       <c r="E180" s="27">
         <v>2023</v>
       </c>
-      <c r="F180" s="27" t="s">
+      <c r="F180" s="37" t="s">
         <v>284</v>
       </c>
       <c r="G180" s="27">
@@ -22737,7 +22756,7 @@
       <c r="O180" s="27">
         <v>4.5999999999999996</v>
       </c>
-      <c r="P180" s="34">
+      <c r="P180" s="33">
         <v>66.656000000000006</v>
       </c>
       <c r="Q180" s="27"/>
@@ -22761,7 +22780,7 @@
       <c r="E181" s="27">
         <v>2023</v>
       </c>
-      <c r="F181" s="27" t="s">
+      <c r="F181" s="37" t="s">
         <v>284</v>
       </c>
       <c r="G181" s="27">
@@ -22791,7 +22810,7 @@
       <c r="O181" s="27">
         <v>8</v>
       </c>
-      <c r="P181" s="34">
+      <c r="P181" s="33">
         <v>93.748000000000005</v>
       </c>
       <c r="Q181" s="27"/>
@@ -22815,7 +22834,7 @@
       <c r="E182" s="27">
         <v>2023</v>
       </c>
-      <c r="F182" s="27" t="s">
+      <c r="F182" s="37" t="s">
         <v>284</v>
       </c>
       <c r="G182" s="27">
@@ -22845,7 +22864,7 @@
       <c r="O182" s="27">
         <v>7</v>
       </c>
-      <c r="P182" s="34">
+      <c r="P182" s="33">
         <v>97.915999999999997</v>
       </c>
       <c r="Q182" s="27"/>
@@ -22869,7 +22888,7 @@
       <c r="E183" s="27">
         <v>2023</v>
       </c>
-      <c r="F183" s="28" t="s">
+      <c r="F183" s="38" t="s">
         <v>283</v>
       </c>
       <c r="G183" s="27">
@@ -22899,7 +22918,7 @@
       <c r="O183" s="27">
         <v>1.6</v>
       </c>
-      <c r="P183" s="34">
+      <c r="P183" s="33">
         <v>93.748000000000005</v>
       </c>
       <c r="Q183" s="27"/>
@@ -22923,7 +22942,7 @@
       <c r="E184" s="27">
         <v>2023</v>
       </c>
-      <c r="F184" s="28" t="s">
+      <c r="F184" s="38" t="s">
         <v>283</v>
       </c>
       <c r="G184" s="27">
@@ -22953,7 +22972,7 @@
       <c r="O184" s="27">
         <v>2.1</v>
       </c>
-      <c r="P184" s="34">
+      <c r="P184" s="33">
         <v>95.831999999999994</v>
       </c>
       <c r="Q184" s="27"/>
@@ -22977,7 +22996,7 @@
       <c r="E185" s="27">
         <v>2023</v>
       </c>
-      <c r="F185" s="28" t="s">
+      <c r="F185" s="38" t="s">
         <v>283</v>
       </c>
       <c r="G185" s="27">
@@ -23007,7 +23026,7 @@
       <c r="O185" s="27">
         <v>2.1</v>
       </c>
-      <c r="P185" s="34">
+      <c r="P185" s="33">
         <v>91.664000000000001</v>
       </c>
       <c r="Q185" s="27"/>
@@ -23031,7 +23050,7 @@
       <c r="E186" s="27">
         <v>2023</v>
       </c>
-      <c r="F186" s="28" t="s">
+      <c r="F186" s="38" t="s">
         <v>283</v>
       </c>
       <c r="G186" s="27">
@@ -23061,7 +23080,7 @@
       <c r="O186" s="27">
         <v>4</v>
       </c>
-      <c r="P186" s="34">
+      <c r="P186" s="33">
         <v>94.79</v>
       </c>
       <c r="Q186" s="27"/>
@@ -23085,7 +23104,7 @@
       <c r="E187" s="27">
         <v>2023</v>
       </c>
-      <c r="F187" s="28" t="s">
+      <c r="F187" s="38" t="s">
         <v>283</v>
       </c>
       <c r="G187" s="27">
@@ -23115,7 +23134,7 @@
       <c r="O187" s="27">
         <v>9.5</v>
       </c>
-      <c r="P187" s="34">
+      <c r="P187" s="33">
         <v>95.831999999999994</v>
       </c>
       <c r="Q187" s="27"/>
@@ -23139,7 +23158,7 @@
       <c r="E188" s="27">
         <v>2023</v>
       </c>
-      <c r="F188" s="28" t="s">
+      <c r="F188" s="38" t="s">
         <v>283</v>
       </c>
       <c r="G188" s="27">
@@ -23169,7 +23188,7 @@
       <c r="O188" s="27">
         <v>1.3</v>
       </c>
-      <c r="P188" s="34">
+      <c r="P188" s="33">
         <v>100</v>
       </c>
       <c r="Q188" s="27"/>
@@ -23193,7 +23212,7 @@
       <c r="E189" s="27">
         <v>2023</v>
       </c>
-      <c r="F189" s="28" t="s">
+      <c r="F189" s="38" t="s">
         <v>283</v>
       </c>
       <c r="G189" s="27">
@@ -23223,7 +23242,7 @@
       <c r="O189" s="27">
         <v>1.3</v>
       </c>
-      <c r="P189" s="34">
+      <c r="P189" s="33">
         <v>100</v>
       </c>
       <c r="Q189" s="27"/>
@@ -23247,7 +23266,7 @@
       <c r="E190" s="27">
         <v>2023</v>
       </c>
-      <c r="F190" s="28" t="s">
+      <c r="F190" s="38" t="s">
         <v>283</v>
       </c>
       <c r="G190" s="27">
@@ -23277,7 +23296,7 @@
       <c r="O190" s="27">
         <v>2</v>
       </c>
-      <c r="P190" s="34">
+      <c r="P190" s="33">
         <v>100</v>
       </c>
       <c r="Q190" s="27"/>
@@ -23301,7 +23320,7 @@
       <c r="E191" s="27">
         <v>2023</v>
       </c>
-      <c r="F191" s="28" t="s">
+      <c r="F191" s="38" t="s">
         <v>283</v>
       </c>
       <c r="G191" s="27">
@@ -23331,7 +23350,7 @@
       <c r="O191" s="27">
         <v>4</v>
       </c>
-      <c r="P191" s="34">
+      <c r="P191" s="33">
         <v>100</v>
       </c>
       <c r="Q191" s="27"/>
@@ -23355,7 +23374,7 @@
       <c r="E192" s="27">
         <v>2023</v>
       </c>
-      <c r="F192" s="28" t="s">
+      <c r="F192" s="38" t="s">
         <v>283</v>
       </c>
       <c r="G192" s="27">
@@ -23385,7 +23404,7 @@
       <c r="O192" s="27">
         <v>3.6</v>
       </c>
-      <c r="P192" s="34">
+      <c r="P192" s="33">
         <v>100</v>
       </c>
       <c r="Q192" s="27"/>
@@ -23409,7 +23428,7 @@
       <c r="E193" s="27">
         <v>2023</v>
       </c>
-      <c r="F193" s="27" t="s">
+      <c r="F193" s="37" t="s">
         <v>284</v>
       </c>
       <c r="G193" s="27">
@@ -23439,7 +23458,7 @@
       <c r="O193" s="27">
         <v>4</v>
       </c>
-      <c r="P193" s="34">
+      <c r="P193" s="33">
         <v>91.664000000000001</v>
       </c>
       <c r="Q193" s="27"/>
@@ -23463,7 +23482,7 @@
       <c r="E194" s="27">
         <v>2023</v>
       </c>
-      <c r="F194" s="27" t="s">
+      <c r="F194" s="37" t="s">
         <v>284</v>
       </c>
       <c r="G194" s="27">
@@ -23493,7 +23512,7 @@
       <c r="O194" s="27">
         <v>3.7</v>
       </c>
-      <c r="P194" s="34">
+      <c r="P194" s="33">
         <v>89.58</v>
       </c>
       <c r="Q194" s="27"/>
@@ -23517,7 +23536,7 @@
       <c r="E195" s="27">
         <v>2023</v>
       </c>
-      <c r="F195" s="27" t="s">
+      <c r="F195" s="37" t="s">
         <v>284</v>
       </c>
       <c r="G195" s="27">
@@ -23547,7 +23566,7 @@
       <c r="O195" s="27">
         <v>1.5</v>
       </c>
-      <c r="P195" s="34">
+      <c r="P195" s="33">
         <v>89.58</v>
       </c>
       <c r="Q195" s="27"/>
@@ -23571,7 +23590,7 @@
       <c r="E196" s="27">
         <v>2023</v>
       </c>
-      <c r="F196" s="27" t="s">
+      <c r="F196" s="37" t="s">
         <v>284</v>
       </c>
       <c r="G196" s="27">
@@ -23601,7 +23620,7 @@
       <c r="O196" s="27">
         <v>7.2</v>
       </c>
-      <c r="P196" s="34">
+      <c r="P196" s="33">
         <v>0</v>
       </c>
       <c r="Q196" s="27"/>
@@ -23625,7 +23644,7 @@
       <c r="E197" s="27">
         <v>2023</v>
       </c>
-      <c r="F197" s="27" t="s">
+      <c r="F197" s="37" t="s">
         <v>284</v>
       </c>
       <c r="G197" s="27">
@@ -23655,7 +23674,7 @@
       <c r="O197" s="27">
         <v>6.3</v>
       </c>
-      <c r="P197" s="34">
+      <c r="P197" s="33">
         <v>96.873999999999995</v>
       </c>
       <c r="Q197" s="27"/>
@@ -23679,7 +23698,7 @@
       <c r="E198" s="27">
         <v>2023</v>
       </c>
-      <c r="F198" s="27" t="s">
+      <c r="F198" s="37" t="s">
         <v>284</v>
       </c>
       <c r="G198" s="27">
@@ -23709,7 +23728,7 @@
       <c r="O198" s="27">
         <v>4.3</v>
       </c>
-      <c r="P198" s="34">
+      <c r="P198" s="33">
         <v>95.831999999999994</v>
       </c>
       <c r="Q198" s="27"/>
@@ -23733,7 +23752,7 @@
       <c r="E199" s="27">
         <v>2023</v>
       </c>
-      <c r="F199" s="27" t="s">
+      <c r="F199" s="37" t="s">
         <v>284</v>
       </c>
       <c r="G199" s="27">
@@ -23763,7 +23782,7 @@
       <c r="O199" s="27">
         <v>1.6</v>
       </c>
-      <c r="P199" s="34">
+      <c r="P199" s="33">
         <v>97.915999999999997</v>
       </c>
       <c r="Q199" s="27"/>
@@ -23787,7 +23806,7 @@
       <c r="E200" s="27">
         <v>2023</v>
       </c>
-      <c r="F200" s="27" t="s">
+      <c r="F200" s="37" t="s">
         <v>284</v>
       </c>
       <c r="G200" s="27">
@@ -23817,7 +23836,7 @@
       <c r="O200" s="27">
         <v>1.6</v>
       </c>
-      <c r="P200" s="34">
+      <c r="P200" s="33">
         <v>94.79</v>
       </c>
       <c r="Q200" s="27"/>
@@ -23841,7 +23860,7 @@
       <c r="E201" s="27">
         <v>2023</v>
       </c>
-      <c r="F201" s="27" t="s">
+      <c r="F201" s="37" t="s">
         <v>284</v>
       </c>
       <c r="G201" s="27">
@@ -23871,7 +23890,7 @@
       <c r="O201" s="27">
         <v>2</v>
       </c>
-      <c r="P201" s="34">
+      <c r="P201" s="33">
         <v>89.58</v>
       </c>
       <c r="Q201" s="27"/>
@@ -23895,7 +23914,7 @@
       <c r="E202" s="27">
         <v>2023</v>
       </c>
-      <c r="F202" s="27" t="s">
+      <c r="F202" s="37" t="s">
         <v>284</v>
       </c>
       <c r="G202" s="27">
@@ -23925,7 +23944,7 @@
       <c r="O202" s="27">
         <v>1</v>
       </c>
-      <c r="P202" s="34">
+      <c r="P202" s="33">
         <v>66.656000000000006</v>
       </c>
       <c r="Q202" s="27"/>
@@ -23947,7 +23966,7 @@
         <v>145</v>
       </c>
       <c r="E203" s="27"/>
-      <c r="F203" s="29" t="s">
+      <c r="F203" s="39" t="s">
         <v>147</v>
       </c>
       <c r="G203" s="27">
@@ -23965,7 +23984,7 @@
       <c r="M203" s="27"/>
       <c r="N203" s="27"/>
       <c r="O203" s="27"/>
-      <c r="P203" s="34" t="s">
+      <c r="P203" s="33" t="s">
         <v>387</v>
       </c>
       <c r="Q203" s="27"/>
@@ -23987,7 +24006,7 @@
         <v>145</v>
       </c>
       <c r="E204" s="27"/>
-      <c r="F204" s="29" t="s">
+      <c r="F204" s="39" t="s">
         <v>147</v>
       </c>
       <c r="G204" s="27">
@@ -24005,7 +24024,7 @@
       <c r="M204" s="27"/>
       <c r="N204" s="27"/>
       <c r="O204" s="27"/>
-      <c r="P204" s="34" t="s">
+      <c r="P204" s="33" t="s">
         <v>387</v>
       </c>
       <c r="Q204" s="27"/>
@@ -24027,7 +24046,7 @@
         <v>145</v>
       </c>
       <c r="E205" s="27"/>
-      <c r="F205" s="29" t="s">
+      <c r="F205" s="39" t="s">
         <v>147</v>
       </c>
       <c r="G205" s="27">
@@ -24045,7 +24064,7 @@
       <c r="M205" s="27"/>
       <c r="N205" s="27"/>
       <c r="O205" s="27"/>
-      <c r="P205" s="34" t="s">
+      <c r="P205" s="33" t="s">
         <v>387</v>
       </c>
       <c r="Q205" s="27"/>
@@ -24067,7 +24086,7 @@
         <v>145</v>
       </c>
       <c r="E206" s="27"/>
-      <c r="F206" s="29" t="s">
+      <c r="F206" s="39" t="s">
         <v>147</v>
       </c>
       <c r="G206" s="27">
@@ -24085,7 +24104,7 @@
       <c r="M206" s="27"/>
       <c r="N206" s="27"/>
       <c r="O206" s="27"/>
-      <c r="P206" s="34" t="s">
+      <c r="P206" s="33" t="s">
         <v>387</v>
       </c>
       <c r="Q206" s="27"/>
@@ -24107,7 +24126,7 @@
         <v>145</v>
       </c>
       <c r="E207" s="27"/>
-      <c r="F207" s="29" t="s">
+      <c r="F207" s="39" t="s">
         <v>147</v>
       </c>
       <c r="G207" s="27">
@@ -24125,7 +24144,7 @@
       <c r="M207" s="27"/>
       <c r="N207" s="27"/>
       <c r="O207" s="27"/>
-      <c r="P207" s="34" t="s">
+      <c r="P207" s="33" t="s">
         <v>387</v>
       </c>
       <c r="Q207" s="27"/>
@@ -24147,7 +24166,7 @@
         <v>145</v>
       </c>
       <c r="E208" s="27"/>
-      <c r="F208" s="29" t="s">
+      <c r="F208" s="39" t="s">
         <v>147</v>
       </c>
       <c r="G208" s="27">
@@ -24165,7 +24184,7 @@
       <c r="M208" s="27"/>
       <c r="N208" s="27"/>
       <c r="O208" s="27"/>
-      <c r="P208" s="34" t="s">
+      <c r="P208" s="33" t="s">
         <v>387</v>
       </c>
       <c r="Q208" s="27"/>
@@ -24187,7 +24206,7 @@
         <v>145</v>
       </c>
       <c r="E209" s="27"/>
-      <c r="F209" s="29" t="s">
+      <c r="F209" s="39" t="s">
         <v>147</v>
       </c>
       <c r="G209" s="27">
@@ -24205,7 +24224,7 @@
       <c r="M209" s="27"/>
       <c r="N209" s="27"/>
       <c r="O209" s="27"/>
-      <c r="P209" s="34" t="s">
+      <c r="P209" s="33" t="s">
         <v>387</v>
       </c>
       <c r="Q209" s="27"/>
@@ -24227,7 +24246,7 @@
         <v>145</v>
       </c>
       <c r="E210" s="27"/>
-      <c r="F210" s="29" t="s">
+      <c r="F210" s="39" t="s">
         <v>147</v>
       </c>
       <c r="G210" s="27">
@@ -24245,7 +24264,7 @@
       <c r="M210" s="27"/>
       <c r="N210" s="27"/>
       <c r="O210" s="27"/>
-      <c r="P210" s="34" t="s">
+      <c r="P210" s="33" t="s">
         <v>387</v>
       </c>
       <c r="Q210" s="27"/>
@@ -24267,7 +24286,7 @@
         <v>145</v>
       </c>
       <c r="E211" s="27"/>
-      <c r="F211" s="29" t="s">
+      <c r="F211" s="39" t="s">
         <v>147</v>
       </c>
       <c r="G211" s="27">
@@ -24285,7 +24304,7 @@
       <c r="M211" s="27"/>
       <c r="N211" s="27"/>
       <c r="O211" s="27"/>
-      <c r="P211" s="34" t="s">
+      <c r="P211" s="33" t="s">
         <v>387</v>
       </c>
       <c r="Q211" s="27"/>
@@ -24307,7 +24326,7 @@
         <v>145</v>
       </c>
       <c r="E212" s="27"/>
-      <c r="F212" s="29" t="s">
+      <c r="F212" s="39" t="s">
         <v>147</v>
       </c>
       <c r="G212" s="27">
@@ -24325,7 +24344,7 @@
       <c r="M212" s="27"/>
       <c r="N212" s="27"/>
       <c r="O212" s="27"/>
-      <c r="P212" s="34" t="s">
+      <c r="P212" s="33" t="s">
         <v>387</v>
       </c>
       <c r="Q212" s="27"/>
@@ -24349,7 +24368,7 @@
       <c r="E213" s="27">
         <v>2023</v>
       </c>
-      <c r="F213" s="27" t="s">
+      <c r="F213" s="37" t="s">
         <v>285</v>
       </c>
       <c r="G213" s="27">
@@ -24379,7 +24398,7 @@
       <c r="O213" s="27">
         <v>1</v>
       </c>
-      <c r="P213" s="34">
+      <c r="P213" s="33">
         <v>0</v>
       </c>
       <c r="Q213" s="27"/>
@@ -24403,7 +24422,7 @@
       <c r="E214" s="27">
         <v>2023</v>
       </c>
-      <c r="F214" s="27" t="s">
+      <c r="F214" s="37" t="s">
         <v>285</v>
       </c>
       <c r="G214" s="27">
@@ -24433,7 +24452,7 @@
       <c r="O214" s="27">
         <v>6</v>
       </c>
-      <c r="P214" s="34">
+      <c r="P214" s="33">
         <v>95.831999999999994</v>
       </c>
       <c r="Q214" s="27"/>
@@ -24457,7 +24476,7 @@
       <c r="E215" s="27">
         <v>2023</v>
       </c>
-      <c r="F215" s="27" t="s">
+      <c r="F215" s="37" t="s">
         <v>285</v>
       </c>
       <c r="G215" s="27">
@@ -24487,7 +24506,7 @@
       <c r="O215" s="27">
         <v>1</v>
       </c>
-      <c r="P215" s="34">
+      <c r="P215" s="33">
         <v>0</v>
       </c>
       <c r="Q215" s="27"/>
@@ -24511,7 +24530,7 @@
       <c r="E216" s="27">
         <v>2023</v>
       </c>
-      <c r="F216" s="27" t="s">
+      <c r="F216" s="37" t="s">
         <v>285</v>
       </c>
       <c r="G216" s="27">
@@ -24541,7 +24560,7 @@
       <c r="O216" s="27">
         <v>1.5</v>
       </c>
-      <c r="P216" s="34">
+      <c r="P216" s="33">
         <v>0</v>
       </c>
       <c r="Q216" s="27"/>
@@ -24565,7 +24584,7 @@
       <c r="E217" s="27">
         <v>2023</v>
       </c>
-      <c r="F217" s="27" t="s">
+      <c r="F217" s="37" t="s">
         <v>285</v>
       </c>
       <c r="G217" s="27">
@@ -24595,7 +24614,7 @@
       <c r="O217" s="27">
         <v>1.5</v>
       </c>
-      <c r="P217" s="34">
+      <c r="P217" s="33">
         <v>91.664000000000001</v>
       </c>
       <c r="Q217" s="27"/>
@@ -24619,7 +24638,7 @@
       <c r="E218" s="27">
         <v>2023</v>
       </c>
-      <c r="F218" s="27" t="s">
+      <c r="F218" s="37" t="s">
         <v>285</v>
       </c>
       <c r="G218" s="27">
@@ -24649,7 +24668,7 @@
       <c r="O218" s="27">
         <v>1</v>
       </c>
-      <c r="P218" s="34">
+      <c r="P218" s="33">
         <v>37.479999999999997</v>
       </c>
       <c r="Q218" s="27"/>
@@ -24673,7 +24692,7 @@
       <c r="E219" s="27">
         <v>2023</v>
       </c>
-      <c r="F219" s="27" t="s">
+      <c r="F219" s="37" t="s">
         <v>285</v>
       </c>
       <c r="G219" s="27">
@@ -24703,7 +24722,7 @@
       <c r="O219" s="27">
         <v>10</v>
       </c>
-      <c r="P219" s="34">
+      <c r="P219" s="33">
         <v>98.957999999999998</v>
       </c>
       <c r="Q219" s="27"/>
@@ -24727,7 +24746,7 @@
       <c r="E220" s="27">
         <v>2023</v>
       </c>
-      <c r="F220" s="27" t="s">
+      <c r="F220" s="37" t="s">
         <v>285</v>
       </c>
       <c r="G220" s="27">
@@ -24757,7 +24776,7 @@
       <c r="O220" s="27">
         <v>1.6</v>
       </c>
-      <c r="P220" s="34">
+      <c r="P220" s="33">
         <v>0</v>
       </c>
       <c r="Q220" s="27"/>
@@ -24781,7 +24800,7 @@
       <c r="E221" s="27">
         <v>2023</v>
       </c>
-      <c r="F221" s="27" t="s">
+      <c r="F221" s="37" t="s">
         <v>285</v>
       </c>
       <c r="G221" s="27">
@@ -24811,7 +24830,7 @@
       <c r="O221" s="27">
         <v>1.3</v>
       </c>
-      <c r="P221" s="34">
+      <c r="P221" s="33">
         <v>8.304000000000002</v>
       </c>
       <c r="Q221" s="27"/>
@@ -24835,7 +24854,7 @@
       <c r="E222" s="27">
         <v>2023</v>
       </c>
-      <c r="F222" s="27" t="s">
+      <c r="F222" s="37" t="s">
         <v>285</v>
       </c>
       <c r="G222" s="27">
@@ -24865,7 +24884,7 @@
       <c r="O222" s="27">
         <v>9</v>
       </c>
-      <c r="P222" s="34">
+      <c r="P222" s="33">
         <v>31.227999999999994</v>
       </c>
       <c r="Q222" s="27"/>
@@ -24889,7 +24908,7 @@
       <c r="E223" s="27">
         <v>2023</v>
       </c>
-      <c r="F223" s="33" t="s">
+      <c r="F223" s="40" t="s">
         <v>285</v>
       </c>
       <c r="G223" s="27">
@@ -24919,7 +24938,7 @@
       <c r="O223" s="27">
         <v>1</v>
       </c>
-      <c r="P223" s="34">
+      <c r="P223" s="33">
         <v>29.143999999999991</v>
       </c>
       <c r="Q223" s="27"/>
@@ -24943,7 +24962,7 @@
       <c r="E224" s="27">
         <v>2023</v>
       </c>
-      <c r="F224" s="33" t="s">
+      <c r="F224" s="40" t="s">
         <v>285</v>
       </c>
       <c r="G224" s="27">
@@ -24973,7 +24992,7 @@
       <c r="O224" s="27">
         <v>0.5</v>
       </c>
-      <c r="P224" s="34">
+      <c r="P224" s="33">
         <v>72.908000000000001</v>
       </c>
       <c r="Q224" s="27"/>
@@ -24997,7 +25016,7 @@
       <c r="E225" s="27">
         <v>2023</v>
       </c>
-      <c r="F225" s="33" t="s">
+      <c r="F225" s="40" t="s">
         <v>285</v>
       </c>
       <c r="G225" s="27">
@@ -25027,7 +25046,7 @@
       <c r="O225" s="27">
         <v>0.5</v>
       </c>
-      <c r="P225" s="34">
+      <c r="P225" s="33">
         <v>49.983999999999995</v>
       </c>
       <c r="Q225" s="27"/>
@@ -25051,7 +25070,7 @@
       <c r="E226" s="27">
         <v>2023</v>
       </c>
-      <c r="F226" s="33" t="s">
+      <c r="F226" s="40" t="s">
         <v>285</v>
       </c>
       <c r="G226" s="27">
@@ -25081,7 +25100,7 @@
       <c r="O226" s="27">
         <v>0.5</v>
       </c>
-      <c r="P226" s="34">
+      <c r="P226" s="33">
         <v>70.823999999999998</v>
       </c>
       <c r="Q226" s="27"/>
@@ -25105,7 +25124,7 @@
       <c r="E227" s="27">
         <v>2023</v>
       </c>
-      <c r="F227" s="33" t="s">
+      <c r="F227" s="40" t="s">
         <v>285</v>
       </c>
       <c r="G227" s="27">
@@ -25135,7 +25154,7 @@
       <c r="O227" s="27">
         <v>1</v>
       </c>
-      <c r="P227" s="34">
+      <c r="P227" s="33">
         <v>33.311999999999998</v>
       </c>
       <c r="Q227" s="27"/>
@@ -25159,7 +25178,7 @@
       <c r="E228" s="27">
         <v>2023</v>
       </c>
-      <c r="F228" s="33" t="s">
+      <c r="F228" s="40" t="s">
         <v>285</v>
       </c>
       <c r="G228" s="27">
@@ -25189,7 +25208,7 @@
       <c r="O228" s="27">
         <v>2.2999999999999998</v>
       </c>
-      <c r="P228" s="34">
+      <c r="P228" s="33">
         <v>31.227999999999994</v>
       </c>
       <c r="Q228" s="27"/>
@@ -25213,7 +25232,7 @@
       <c r="E229" s="27">
         <v>2023</v>
       </c>
-      <c r="F229" s="33" t="s">
+      <c r="F229" s="40" t="s">
         <v>285</v>
       </c>
       <c r="G229" s="27">
@@ -25243,7 +25262,7 @@
       <c r="O229" s="27">
         <v>2</v>
       </c>
-      <c r="P229" s="34">
+      <c r="P229" s="33">
         <v>10.387999999999991</v>
       </c>
       <c r="Q229" s="27"/>
@@ -25267,7 +25286,7 @@
       <c r="E230" s="27">
         <v>2023</v>
       </c>
-      <c r="F230" s="33" t="s">
+      <c r="F230" s="40" t="s">
         <v>285</v>
       </c>
       <c r="G230" s="27">
@@ -25297,7 +25316,7 @@
       <c r="O230" s="27">
         <v>1</v>
       </c>
-      <c r="P230" s="34">
+      <c r="P230" s="33">
         <v>58.32</v>
       </c>
       <c r="Q230" s="27"/>
@@ -25321,7 +25340,7 @@
       <c r="E231" s="27">
         <v>2023</v>
       </c>
-      <c r="F231" s="33" t="s">
+      <c r="F231" s="40" t="s">
         <v>285</v>
       </c>
       <c r="G231" s="27">
@@ -25351,7 +25370,7 @@
       <c r="O231" s="27">
         <v>2</v>
       </c>
-      <c r="P231" s="34">
+      <c r="P231" s="33">
         <v>41.647999999999996</v>
       </c>
       <c r="Q231" s="27"/>
@@ -25375,7 +25394,7 @@
       <c r="E232" s="27">
         <v>2023</v>
       </c>
-      <c r="F232" s="33" t="s">
+      <c r="F232" s="40" t="s">
         <v>285</v>
       </c>
       <c r="G232" s="27">
@@ -25405,7 +25424,7 @@
       <c r="O232" s="27">
         <v>1</v>
       </c>
-      <c r="P232" s="34">
+      <c r="P232" s="33">
         <v>20.807999999999993</v>
       </c>
       <c r="Q232" s="27"/>
@@ -25429,7 +25448,7 @@
       <c r="E233" s="27">
         <v>2023</v>
       </c>
-      <c r="F233" s="29" t="s">
+      <c r="F233" s="39" t="s">
         <v>286</v>
       </c>
       <c r="G233" s="27">
@@ -25459,7 +25478,7 @@
       <c r="O233" s="29">
         <v>6.8</v>
       </c>
-      <c r="P233" s="34">
+      <c r="P233" s="33">
         <v>91.664000000000001</v>
       </c>
       <c r="Q233" s="27"/>
@@ -25483,7 +25502,7 @@
       <c r="E234" s="27">
         <v>2023</v>
       </c>
-      <c r="F234" s="29" t="s">
+      <c r="F234" s="39" t="s">
         <v>286</v>
       </c>
       <c r="G234" s="27">
@@ -25513,7 +25532,7 @@
       <c r="O234" s="29">
         <v>7.5</v>
       </c>
-      <c r="P234" s="34">
+      <c r="P234" s="33">
         <v>89.58</v>
       </c>
       <c r="Q234" s="27"/>
@@ -25537,7 +25556,7 @@
       <c r="E235" s="27">
         <v>2023</v>
       </c>
-      <c r="F235" s="29" t="s">
+      <c r="F235" s="39" t="s">
         <v>286</v>
       </c>
       <c r="G235" s="27">
@@ -25567,7 +25586,7 @@
       <c r="O235" s="29">
         <v>5</v>
       </c>
-      <c r="P235" s="34">
+      <c r="P235" s="33">
         <v>93.748000000000005</v>
       </c>
       <c r="Q235" s="27"/>
@@ -25591,7 +25610,7 @@
       <c r="E236" s="27">
         <v>2023</v>
       </c>
-      <c r="F236" s="29" t="s">
+      <c r="F236" s="39" t="s">
         <v>286</v>
       </c>
       <c r="G236" s="27">
@@ -25621,7 +25640,7 @@
       <c r="O236" s="29">
         <v>1.5</v>
       </c>
-      <c r="P236" s="34">
+      <c r="P236" s="33">
         <v>95.831999999999994</v>
       </c>
       <c r="Q236" s="27"/>
@@ -25645,7 +25664,7 @@
       <c r="E237" s="27">
         <v>2023</v>
       </c>
-      <c r="F237" s="29" t="s">
+      <c r="F237" s="39" t="s">
         <v>286</v>
       </c>
       <c r="G237" s="27">
@@ -25675,7 +25694,7 @@
       <c r="O237" s="29">
         <v>4.5</v>
       </c>
-      <c r="P237" s="34">
+      <c r="P237" s="33">
         <v>92.706000000000003</v>
       </c>
       <c r="Q237" s="27"/>
@@ -25699,7 +25718,7 @@
       <c r="E238" s="27">
         <v>2023</v>
       </c>
-      <c r="F238" s="29" t="s">
+      <c r="F238" s="39" t="s">
         <v>286</v>
       </c>
       <c r="G238" s="27">
@@ -25729,7 +25748,7 @@
       <c r="O238" s="29">
         <v>2.2999999999999998</v>
       </c>
-      <c r="P238" s="34">
+      <c r="P238" s="33">
         <v>100</v>
       </c>
       <c r="Q238" s="27"/>
@@ -25753,7 +25772,7 @@
       <c r="E239" s="27">
         <v>2023</v>
       </c>
-      <c r="F239" s="29" t="s">
+      <c r="F239" s="39" t="s">
         <v>286</v>
       </c>
       <c r="G239" s="27">
@@ -25783,7 +25802,7 @@
       <c r="O239" s="29">
         <v>7</v>
       </c>
-      <c r="P239" s="34">
+      <c r="P239" s="33">
         <v>96.873999999999995</v>
       </c>
       <c r="Q239" s="27"/>
@@ -25807,7 +25826,7 @@
       <c r="E240" s="27">
         <v>2023</v>
       </c>
-      <c r="F240" s="29" t="s">
+      <c r="F240" s="39" t="s">
         <v>286</v>
       </c>
       <c r="G240" s="27">
@@ -25837,7 +25856,7 @@
       <c r="O240" s="29">
         <v>3</v>
       </c>
-      <c r="P240" s="34">
+      <c r="P240" s="33">
         <v>87.495999999999995</v>
       </c>
       <c r="Q240" s="27"/>
@@ -25861,7 +25880,7 @@
       <c r="E241" s="27">
         <v>2023</v>
       </c>
-      <c r="F241" s="29" t="s">
+      <c r="F241" s="39" t="s">
         <v>286</v>
       </c>
       <c r="G241" s="27">
@@ -25891,7 +25910,7 @@
       <c r="O241" s="29">
         <v>4.3</v>
       </c>
-      <c r="P241" s="34">
+      <c r="P241" s="33">
         <v>95.831999999999994</v>
       </c>
       <c r="Q241" s="27"/>
@@ -25915,7 +25934,7 @@
       <c r="E242" s="27">
         <v>2023</v>
       </c>
-      <c r="F242" s="29" t="s">
+      <c r="F242" s="39" t="s">
         <v>286</v>
       </c>
       <c r="G242" s="27">
@@ -25945,7 +25964,7 @@
       <c r="O242" s="29">
         <v>2</v>
       </c>
-      <c r="P242" s="34">
+      <c r="P242" s="33">
         <v>77.075999999999993</v>
       </c>
       <c r="Q242" s="27"/>
@@ -25969,7 +25988,7 @@
       <c r="E243" s="27">
         <v>2023</v>
       </c>
-      <c r="F243" s="29" t="s">
+      <c r="F243" s="39" t="s">
         <v>286</v>
       </c>
       <c r="G243" s="27">
@@ -25999,7 +26018,7 @@
       <c r="O243" s="27">
         <v>3</v>
       </c>
-      <c r="P243" s="34">
+      <c r="P243" s="33">
         <v>89.58</v>
       </c>
       <c r="Q243" s="27"/>
@@ -26023,7 +26042,7 @@
       <c r="E244" s="27">
         <v>2023</v>
       </c>
-      <c r="F244" s="29" t="s">
+      <c r="F244" s="39" t="s">
         <v>286</v>
       </c>
       <c r="G244" s="27">
@@ -26053,7 +26072,7 @@
       <c r="O244" s="27">
         <v>5</v>
       </c>
-      <c r="P244" s="34">
+      <c r="P244" s="33">
         <v>91.664000000000001</v>
       </c>
       <c r="Q244" s="27"/>
@@ -26077,7 +26096,7 @@
       <c r="E245" s="27">
         <v>2023</v>
       </c>
-      <c r="F245" s="29" t="s">
+      <c r="F245" s="39" t="s">
         <v>286</v>
       </c>
       <c r="G245" s="27">
@@ -26107,7 +26126,7 @@
       <c r="O245" s="27">
         <v>4.5</v>
       </c>
-      <c r="P245" s="34">
+      <c r="P245" s="33">
         <v>95.831999999999994</v>
       </c>
       <c r="Q245" s="27"/>
@@ -26131,7 +26150,7 @@
       <c r="E246" s="27">
         <v>2023</v>
       </c>
-      <c r="F246" s="29" t="s">
+      <c r="F246" s="39" t="s">
         <v>286</v>
       </c>
       <c r="G246" s="27">
@@ -26161,7 +26180,7 @@
       <c r="O246" s="27">
         <v>5</v>
       </c>
-      <c r="P246" s="34">
+      <c r="P246" s="33">
         <v>95.831999999999994</v>
       </c>
       <c r="Q246" s="27"/>
@@ -26185,7 +26204,7 @@
       <c r="E247" s="27">
         <v>2023</v>
       </c>
-      <c r="F247" s="29" t="s">
+      <c r="F247" s="39" t="s">
         <v>286</v>
       </c>
       <c r="G247" s="27">
@@ -26215,7 +26234,7 @@
       <c r="O247" s="27">
         <v>3.5</v>
       </c>
-      <c r="P247" s="34">
+      <c r="P247" s="33">
         <v>91.664000000000001</v>
       </c>
       <c r="Q247" s="27"/>
@@ -26239,7 +26258,7 @@
       <c r="E248" s="27">
         <v>2023</v>
       </c>
-      <c r="F248" s="29" t="s">
+      <c r="F248" s="39" t="s">
         <v>286</v>
       </c>
       <c r="G248" s="27">
@@ -26269,7 +26288,7 @@
       <c r="O248" s="27">
         <v>2</v>
       </c>
-      <c r="P248" s="34">
+      <c r="P248" s="33">
         <v>97.915999999999997</v>
       </c>
       <c r="Q248" s="27"/>
@@ -26293,7 +26312,7 @@
       <c r="E249" s="27">
         <v>2023</v>
       </c>
-      <c r="F249" s="29" t="s">
+      <c r="F249" s="39" t="s">
         <v>286</v>
       </c>
       <c r="G249" s="27">
@@ -26323,7 +26342,7 @@
       <c r="O249" s="27">
         <v>1.6</v>
       </c>
-      <c r="P249" s="34">
+      <c r="P249" s="33">
         <v>98.957999999999998</v>
       </c>
       <c r="Q249" s="27"/>
@@ -26347,7 +26366,7 @@
       <c r="E250" s="27">
         <v>2023</v>
       </c>
-      <c r="F250" s="29" t="s">
+      <c r="F250" s="39" t="s">
         <v>286</v>
       </c>
       <c r="G250" s="27">
@@ -26377,7 +26396,7 @@
       <c r="O250" s="27">
         <v>2</v>
       </c>
-      <c r="P250" s="34">
+      <c r="P250" s="33">
         <v>100</v>
       </c>
       <c r="Q250" s="27"/>
@@ -26401,7 +26420,7 @@
       <c r="E251" s="27">
         <v>2023</v>
       </c>
-      <c r="F251" s="29" t="s">
+      <c r="F251" s="39" t="s">
         <v>286</v>
       </c>
       <c r="G251" s="27">
@@ -26431,7 +26450,7 @@
       <c r="O251" s="27">
         <v>2.6</v>
       </c>
-      <c r="P251" s="34">
+      <c r="P251" s="33">
         <v>97.915999999999997</v>
       </c>
       <c r="Q251" s="27"/>
@@ -26455,7 +26474,7 @@
       <c r="E252" s="27">
         <v>2023</v>
       </c>
-      <c r="F252" s="29" t="s">
+      <c r="F252" s="39" t="s">
         <v>286</v>
       </c>
       <c r="G252" s="27">
@@ -26485,7 +26504,7 @@
       <c r="O252" s="27">
         <v>2</v>
       </c>
-      <c r="P252" s="34">
+      <c r="P252" s="33">
         <v>94.79</v>
       </c>
       <c r="Q252" s="27"/>
@@ -26499,7 +26518,7 @@
       <c r="C253" s="27"/>
       <c r="D253" s="27"/>
       <c r="E253" s="27"/>
-      <c r="F253" s="30"/>
+      <c r="F253" s="41"/>
       <c r="G253" s="27"/>
       <c r="H253" s="27"/>
       <c r="I253" s="30"/>
@@ -26517,7 +26536,7 @@
       </c>
       <c r="N253" s="29"/>
       <c r="O253" s="29"/>
-      <c r="P253" s="34" t="s">
+      <c r="P253" s="33" t="s">
         <v>387</v>
       </c>
       <c r="Q253" s="27"/>
@@ -26527,271 +26546,271 @@
     </row>
     <row r="254" spans="1:20" x14ac:dyDescent="0.35">
       <c r="E254" s="27"/>
-      <c r="P254" s="34" t="s">
+      <c r="P254" s="33" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="255" spans="1:20" x14ac:dyDescent="0.35">
       <c r="E255" s="27"/>
-      <c r="P255" s="34" t="s">
+      <c r="P255" s="33" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="256" spans="1:20" x14ac:dyDescent="0.35">
       <c r="E256" s="27"/>
-      <c r="P256" s="34" t="s">
+      <c r="P256" s="33" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="257" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E257" s="27"/>
-      <c r="P257" s="34" t="s">
+      <c r="P257" s="33" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="258" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E258" s="27"/>
-      <c r="P258" s="34" t="s">
+      <c r="P258" s="33" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="259" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E259" s="27"/>
-      <c r="P259" s="34" t="s">
+      <c r="P259" s="33" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="260" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E260" s="27"/>
-      <c r="P260" s="34" t="s">
+      <c r="P260" s="33" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="261" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E261" s="27"/>
-      <c r="P261" s="34" t="s">
+      <c r="P261" s="33" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="262" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E262" s="27"/>
-      <c r="P262" s="34" t="s">
+      <c r="P262" s="33" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="263" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E263" s="27"/>
-      <c r="P263" s="34" t="s">
+      <c r="P263" s="33" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="264" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E264" s="27"/>
-      <c r="P264" s="34" t="s">
+      <c r="P264" s="33" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="265" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E265" s="27"/>
-      <c r="P265" s="34" t="s">
+      <c r="P265" s="33" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="266" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E266" s="27"/>
-      <c r="P266" s="34" t="s">
+      <c r="P266" s="33" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="267" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E267" s="27"/>
-      <c r="P267" s="34" t="s">
+      <c r="P267" s="33" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="268" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E268" s="27"/>
-      <c r="P268" s="34" t="s">
+      <c r="P268" s="33" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="269" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E269" s="27"/>
-      <c r="P269" s="34" t="s">
+      <c r="P269" s="33" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="270" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E270" s="27"/>
-      <c r="P270" s="34" t="s">
+      <c r="P270" s="33" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="271" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E271" s="27"/>
-      <c r="P271" s="34" t="s">
+      <c r="P271" s="33" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="272" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E272" s="27"/>
-      <c r="P272" s="34" t="s">
+      <c r="P272" s="33" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="273" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E273" s="27"/>
-      <c r="P273" s="34" t="s">
+      <c r="P273" s="33" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="274" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E274" s="27"/>
-      <c r="P274" s="34" t="s">
+      <c r="P274" s="33" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="275" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E275" s="27"/>
-      <c r="P275" s="34" t="s">
+      <c r="P275" s="33" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="276" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E276" s="27"/>
-      <c r="P276" s="34" t="s">
+      <c r="P276" s="33" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="277" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E277" s="27"/>
-      <c r="P277" s="34" t="s">
+      <c r="P277" s="33" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="278" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E278" s="27"/>
-      <c r="P278" s="34" t="s">
+      <c r="P278" s="33" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="279" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E279" s="27"/>
-      <c r="P279" s="34" t="s">
+      <c r="P279" s="33" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="280" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E280" s="27"/>
-      <c r="P280" s="34" t="s">
+      <c r="P280" s="33" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="281" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E281" s="27"/>
-      <c r="P281" s="34" t="s">
+      <c r="P281" s="33" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="282" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E282" s="27"/>
-      <c r="P282" s="34" t="s">
+      <c r="P282" s="33" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="283" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E283" s="27"/>
-      <c r="P283" s="34" t="s">
+      <c r="P283" s="33" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="284" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E284" s="27"/>
-      <c r="P284" s="34" t="s">
+      <c r="P284" s="33" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="285" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E285" s="27"/>
-      <c r="P285" s="34" t="s">
+      <c r="P285" s="33" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="286" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E286" s="27"/>
-      <c r="P286" s="34" t="s">
+      <c r="P286" s="33" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="287" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E287" s="27"/>
-      <c r="P287" s="34" t="s">
+      <c r="P287" s="33" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="288" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E288" s="27"/>
-      <c r="P288" s="34" t="s">
+      <c r="P288" s="33" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="289" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E289" s="27"/>
-      <c r="P289" s="34" t="s">
+      <c r="P289" s="33" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="290" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E290" s="27"/>
-      <c r="P290" s="34" t="s">
+      <c r="P290" s="33" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="291" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E291" s="27"/>
-      <c r="P291" s="34" t="s">
+      <c r="P291" s="33" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="292" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E292" s="27"/>
-      <c r="P292" s="34" t="s">
+      <c r="P292" s="33" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="293" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E293" s="27"/>
-      <c r="P293" s="34" t="s">
+      <c r="P293" s="33" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="294" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E294" s="27"/>
-      <c r="P294" s="34" t="s">
+      <c r="P294" s="33" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="295" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E295" s="27"/>
-      <c r="P295" s="34" t="s">
+      <c r="P295" s="33" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="296" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E296" s="27"/>
-      <c r="P296" s="34" t="s">
+      <c r="P296" s="33" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="297" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E297" s="27"/>
-      <c r="P297" s="34" t="s">
+      <c r="P297" s="33" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="298" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E298" s="27"/>
-      <c r="P298" s="34" t="s">
+      <c r="P298" s="33" t="s">
         <v>387</v>
       </c>
     </row>
